--- a/Docs/Latest/2017 JUNE.xlsx
+++ b/Docs/Latest/2017 JUNE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="240">
   <si>
     <t>DISTRICT</t>
   </si>
@@ -424,6 +424,321 @@
   </si>
   <si>
     <t>District</t>
+  </si>
+  <si>
+    <t>Abim</t>
+  </si>
+  <si>
+    <t>Adjumani</t>
+  </si>
+  <si>
+    <t>Agago</t>
+  </si>
+  <si>
+    <t>Alebtong</t>
+  </si>
+  <si>
+    <t>Amolatar</t>
+  </si>
+  <si>
+    <t>Amudat</t>
+  </si>
+  <si>
+    <t>Amuria</t>
+  </si>
+  <si>
+    <t>Amuru</t>
+  </si>
+  <si>
+    <t>Apac</t>
+  </si>
+  <si>
+    <t>Arua</t>
+  </si>
+  <si>
+    <t>Budaka</t>
+  </si>
+  <si>
+    <t>Bududa</t>
+  </si>
+  <si>
+    <t>Bugiri</t>
+  </si>
+  <si>
+    <t>Buhweju</t>
+  </si>
+  <si>
+    <t>Buikwe</t>
+  </si>
+  <si>
+    <t>Bukwo</t>
+  </si>
+  <si>
+    <t>Bulambuli</t>
+  </si>
+  <si>
+    <t>Buliisa</t>
+  </si>
+  <si>
+    <t>Bundibugyo</t>
+  </si>
+  <si>
+    <t>Bushenyi</t>
+  </si>
+  <si>
+    <t>Busia</t>
+  </si>
+  <si>
+    <t>Buvuma</t>
+  </si>
+  <si>
+    <t>Buyende</t>
+  </si>
+  <si>
+    <t>Dokolo</t>
+  </si>
+  <si>
+    <t>Gomba</t>
+  </si>
+  <si>
+    <t>Gulu</t>
+  </si>
+  <si>
+    <t>Hoima</t>
+  </si>
+  <si>
+    <t>Ibanda</t>
+  </si>
+  <si>
+    <t>Iganga</t>
+  </si>
+  <si>
+    <t>Isingiro</t>
+  </si>
+  <si>
+    <t>Jinja</t>
+  </si>
+  <si>
+    <t>Kaabong</t>
+  </si>
+  <si>
+    <t>Kabale</t>
+  </si>
+  <si>
+    <t>Kabarole</t>
+  </si>
+  <si>
+    <t>Kaberamaido</t>
+  </si>
+  <si>
+    <t>Kalangala</t>
+  </si>
+  <si>
+    <t>Kaliro</t>
+  </si>
+  <si>
+    <t>Kalungu</t>
+  </si>
+  <si>
+    <t>Kampala</t>
+  </si>
+  <si>
+    <t>Kamuli</t>
+  </si>
+  <si>
+    <t>Kamwenge</t>
+  </si>
+  <si>
+    <t>Kanungu</t>
+  </si>
+  <si>
+    <t>Kapchorwa</t>
+  </si>
+  <si>
+    <t>Kasese</t>
+  </si>
+  <si>
+    <t>Katakwi</t>
+  </si>
+  <si>
+    <t>Kayunga</t>
+  </si>
+  <si>
+    <t>Kibaale</t>
+  </si>
+  <si>
+    <t>Kiboga</t>
+  </si>
+  <si>
+    <t>Kibuku</t>
+  </si>
+  <si>
+    <t>Kiruhura</t>
+  </si>
+  <si>
+    <t>Kiryandongo</t>
+  </si>
+  <si>
+    <t>Kisoro</t>
+  </si>
+  <si>
+    <t>Kitgum</t>
+  </si>
+  <si>
+    <t>Koboko</t>
+  </si>
+  <si>
+    <t>Kole</t>
+  </si>
+  <si>
+    <t>Kotido</t>
+  </si>
+  <si>
+    <t>Kumi</t>
+  </si>
+  <si>
+    <t>Kween</t>
+  </si>
+  <si>
+    <t>Kyankwanzi</t>
+  </si>
+  <si>
+    <t>Kyegegwa</t>
+  </si>
+  <si>
+    <t>Kyenjojo</t>
+  </si>
+  <si>
+    <t>Lamwo</t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>Luuka</t>
+  </si>
+  <si>
+    <t>Luwero</t>
+  </si>
+  <si>
+    <t>Lwengo</t>
+  </si>
+  <si>
+    <t>Lyantonde</t>
+  </si>
+  <si>
+    <t>Manafwa</t>
+  </si>
+  <si>
+    <t>Maracha</t>
+  </si>
+  <si>
+    <t>Masaka</t>
+  </si>
+  <si>
+    <t>Masindi</t>
+  </si>
+  <si>
+    <t>Mayuge</t>
+  </si>
+  <si>
+    <t>Mbale</t>
+  </si>
+  <si>
+    <t>Mbarara</t>
+  </si>
+  <si>
+    <t>Mitooma</t>
+  </si>
+  <si>
+    <t>Mityana</t>
+  </si>
+  <si>
+    <t>Moroto</t>
+  </si>
+  <si>
+    <t>Moyo</t>
+  </si>
+  <si>
+    <t>Mpigi</t>
+  </si>
+  <si>
+    <t>Mubende</t>
+  </si>
+  <si>
+    <t>Mukono</t>
+  </si>
+  <si>
+    <t>Nakapiripirit</t>
+  </si>
+  <si>
+    <t>Nakaseke</t>
+  </si>
+  <si>
+    <t>Nakasongola</t>
+  </si>
+  <si>
+    <t>Namayingo</t>
+  </si>
+  <si>
+    <t>Namutumba</t>
+  </si>
+  <si>
+    <t>Napak</t>
+  </si>
+  <si>
+    <t>Nebbi</t>
+  </si>
+  <si>
+    <t>Ngora</t>
+  </si>
+  <si>
+    <t>Ntoroko</t>
+  </si>
+  <si>
+    <t>Ntungamo</t>
+  </si>
+  <si>
+    <t>Nwoya</t>
+  </si>
+  <si>
+    <t>Otuke</t>
+  </si>
+  <si>
+    <t>Oyam</t>
+  </si>
+  <si>
+    <t>Pader</t>
+  </si>
+  <si>
+    <t>Pallisa</t>
+  </si>
+  <si>
+    <t>Rakai</t>
+  </si>
+  <si>
+    <t>Rubirizi</t>
+  </si>
+  <si>
+    <t>Sembabule</t>
+  </si>
+  <si>
+    <t>Sheema</t>
+  </si>
+  <si>
+    <t>Soroti</t>
+  </si>
+  <si>
+    <t>Tororo</t>
+  </si>
+  <si>
+    <t>Wakiso</t>
+  </si>
+  <si>
+    <t>Yumbe</t>
+  </si>
+  <si>
+    <t>Zombo</t>
   </si>
 </sst>
 </file>
@@ -435,7 +750,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +802,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -726,7 +1047,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -867,20 +1188,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,6 +1195,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14149,7 +14458,7 @@
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14213,5322 +14522,3982 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1302.0833333333333</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="B2" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="46">
+        <v>500</v>
+      </c>
+      <c r="D2" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F2" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="46">
         <v>1000</v>
       </c>
-      <c r="F2" s="9">
-        <v>1640</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1680</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1300</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="46">
+        <v>500</v>
+      </c>
+      <c r="I2" s="46">
         <v>1000</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="46">
         <v>1500</v>
       </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
-        <v>100</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2593.75</v>
-      </c>
-      <c r="E3" s="9">
-        <v>505</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2111.9999999999982</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1325</v>
-      </c>
-      <c r="I3" s="9">
-        <v>262</v>
-      </c>
-      <c r="J3" s="9">
-        <v>580</v>
-      </c>
-      <c r="K3" s="9">
-        <v>458.66987179487182</v>
-      </c>
-      <c r="L3" s="9">
-        <v>3387.7145032051285</v>
-      </c>
-      <c r="M3" s="9">
-        <v>98.957916666666705</v>
-      </c>
-      <c r="N3" s="9">
-        <v>173.66589743589748</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="46">
+        <v>480</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="46">
+        <v>800</v>
+      </c>
+      <c r="I3" s="46">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2697.9166666666665</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1107</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5580</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1959.9999999999998</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1375</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3308</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1130</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>14460.666666666668</v>
-      </c>
-      <c r="M4" s="9">
-        <v>200</v>
-      </c>
-      <c r="N4" s="9">
-        <v>284.2297756410257</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="46">
+        <v>960</v>
+      </c>
+      <c r="F4" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46">
+        <v>3400</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1140</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1208.3333333333333</v>
-      </c>
-      <c r="E5" s="9">
-        <v>47</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1945.9999999999998</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2420</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3250</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>6538.9347756410243</v>
-      </c>
-      <c r="M5" s="9">
-        <v>162.5504967948718</v>
-      </c>
-      <c r="N5" s="9">
-        <v>292.36483974358976</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="46">
+        <v>500</v>
+      </c>
+      <c r="D5" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="46">
+        <v>480</v>
+      </c>
+      <c r="F5" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="46">
+        <v>800</v>
+      </c>
+      <c r="I5" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J5" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9">
-        <v>580</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1416.6666666666665</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2540</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1274</v>
-      </c>
-      <c r="H6" s="9">
-        <v>940</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1662</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1010</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1173.0400641025642</v>
-      </c>
-      <c r="L6" s="9">
-        <v>9847</v>
-      </c>
-      <c r="M6" s="9">
-        <v>200</v>
-      </c>
-      <c r="N6" s="9">
-        <v>193.53697916666667</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="46">
+        <v>500</v>
+      </c>
+      <c r="D6" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="46">
+        <v>480</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="46">
+        <v>600</v>
+      </c>
+      <c r="I6" s="46">
+        <v>1800</v>
+      </c>
+      <c r="J6" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9">
-        <v>200</v>
-      </c>
-      <c r="D7" s="9">
-        <v>822.91666666666663</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>420</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>630</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>6680.5963141025641</v>
-      </c>
-      <c r="M7" s="9">
-        <v>53.195336538461547</v>
-      </c>
-      <c r="N7" s="9">
-        <v>50</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="46">
+        <v>500</v>
+      </c>
+      <c r="D7" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F7" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <v>300</v>
+      </c>
+      <c r="I7" s="46">
+        <v>2200</v>
+      </c>
+      <c r="J7" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="46">
+        <v>500</v>
+      </c>
+      <c r="D8" s="46">
         <v>3000</v>
       </c>
-      <c r="D8" s="9">
-        <v>2583.3333333333335</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4260</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2338</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="9">
-        <v>3870</v>
-      </c>
-      <c r="J8" s="9">
-        <v>3640</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>300</v>
-      </c>
-      <c r="N8" s="9">
-        <v>354.24107371794872</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F8" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="46">
+        <v>800</v>
+      </c>
+      <c r="I8" s="46">
+        <v>3400</v>
+      </c>
+      <c r="J8" s="46">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46">
         <v>3000</v>
       </c>
-      <c r="D9" s="9">
-        <v>2270.8333333333335</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4100</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1652</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="9">
-        <v>3288</v>
-      </c>
-      <c r="J9" s="9">
-        <v>3480</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="9">
-        <v>10448.454086538462</v>
-      </c>
-      <c r="M9" s="9">
-        <v>200</v>
-      </c>
-      <c r="N9" s="9">
-        <v>200</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G9" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="46">
+        <v>800</v>
+      </c>
+      <c r="I9" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1680</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2468.75</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1360</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4246</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2025</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2406</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1980</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>17121.754006410261</v>
-      </c>
-      <c r="M10" s="9">
-        <v>349.39807692307687</v>
-      </c>
-      <c r="N10" s="9">
-        <v>480.58330128205142</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="46">
+        <v>500</v>
+      </c>
+      <c r="D10" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="46">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="46">
+        <v>2400</v>
+      </c>
+      <c r="J10" s="46">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9">
-        <v>6000</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="46">
         <v>9000</v>
       </c>
-      <c r="E11" s="9">
-        <v>2473</v>
-      </c>
-      <c r="F11" s="9">
-        <v>4600</v>
-      </c>
-      <c r="G11" s="9">
-        <v>6762</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6000</v>
-      </c>
-      <c r="I11" s="9">
-        <v>7000</v>
-      </c>
-      <c r="J11" s="9">
-        <v>6000</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>24500.627243589748</v>
-      </c>
-      <c r="M11" s="9">
-        <v>530.54631410256434</v>
-      </c>
-      <c r="N11" s="9">
-        <v>904.86330929487178</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E11" s="46">
+        <v>10360</v>
+      </c>
+      <c r="F11" s="46">
+        <v>53000</v>
+      </c>
+      <c r="G11" s="46">
+        <v>4500</v>
+      </c>
+      <c r="H11" s="46">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="46">
+        <v>23000</v>
+      </c>
+      <c r="J11" s="46">
+        <v>29500</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1300</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1802.0833333333333</v>
-      </c>
-      <c r="E12" s="9">
-        <v>448</v>
-      </c>
-      <c r="F12" s="9">
-        <v>3600</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1805.9999999999998</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1120</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2542</v>
-      </c>
-      <c r="J12" s="9">
-        <v>950</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1649.8910256410256</v>
-      </c>
-      <c r="L12" s="9">
-        <v>13849.583333333332</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>72.224703525641075</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="46">
+        <v>480</v>
+      </c>
+      <c r="F12" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="46">
+        <v>800</v>
+      </c>
+      <c r="I12" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J12" s="46">
+        <v>2500</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1880</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2427.083333333333</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>5320</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1960</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1175</v>
-      </c>
-      <c r="I13" s="9">
-        <v>3300</v>
-      </c>
-      <c r="J13" s="9">
-        <v>2120</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="46">
+        <v>700</v>
+      </c>
+      <c r="I13" s="46">
+        <v>600</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3180</v>
-      </c>
-      <c r="D14" s="9">
-        <v>4635.416666666667</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>8180</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3360</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2365</v>
-      </c>
-      <c r="I14" s="9">
-        <v>4802</v>
-      </c>
-      <c r="J14" s="9">
-        <v>4180</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>22825.311057692306</v>
-      </c>
-      <c r="M14" s="9">
-        <v>359.7863782051283</v>
-      </c>
-      <c r="N14" s="9">
-        <v>400</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="46">
+        <v>960</v>
+      </c>
+      <c r="F14" s="46">
+        <v>7000</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H14" s="46">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="46">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="46">
+        <v>4500</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9">
-        <v>540</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1229.1666666666667</v>
-      </c>
-      <c r="E15" s="9">
-        <v>295</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2220</v>
-      </c>
-      <c r="G15" s="9">
-        <v>740</v>
-      </c>
-      <c r="H15" s="9">
-        <v>660</v>
-      </c>
-      <c r="I15" s="9">
-        <v>652</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1280</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>63.759214743589737</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="46">
+        <v>500</v>
+      </c>
+      <c r="D15" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="46">
+        <v>480</v>
+      </c>
+      <c r="F15" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="46">
+        <v>400</v>
+      </c>
+      <c r="I15" s="46">
+        <v>200</v>
+      </c>
+      <c r="J15" s="46">
+        <v>500</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2520</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4552.083333333333</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2634</v>
-      </c>
-      <c r="F16" s="9">
-        <v>7920</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3765.9999999999995</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2375</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2000</v>
-      </c>
-      <c r="J16" s="9">
-        <v>5310</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>700</v>
-      </c>
-      <c r="N16" s="9">
-        <v>532.18096955128203</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46">
+        <v>8000</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="46">
+        <v>1400</v>
+      </c>
+      <c r="I16" s="46">
+        <v>6200</v>
+      </c>
+      <c r="J16" s="46">
+        <v>500</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9">
-        <v>1810</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1552.0833333333333</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1600</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1966</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1325</v>
-      </c>
-      <c r="I17" s="9">
-        <v>756</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1970</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>3362.5285256410261</v>
-      </c>
-      <c r="M17" s="9">
-        <v>198.63602564102567</v>
-      </c>
-      <c r="N17" s="9">
-        <v>200</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="46">
+        <v>500</v>
+      </c>
+      <c r="D17" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="46">
+        <v>700</v>
+      </c>
+      <c r="I17" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J17" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="9">
-        <v>1210</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1479.1666666666665</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1760</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1302</v>
-      </c>
-      <c r="H18" s="9">
-        <v>885</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1524</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1160</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>282.30336538461597</v>
-      </c>
-      <c r="M18" s="9">
-        <v>132.95562500000003</v>
-      </c>
-      <c r="N18" s="9">
-        <v>182.87068108974358</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="46">
+        <v>500</v>
+      </c>
+      <c r="D18" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="46">
+        <v>400</v>
+      </c>
+      <c r="I18" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="46">
+        <v>500</v>
+      </c>
+      <c r="D19" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="46">
         <v>480</v>
       </c>
-      <c r="D19" s="9">
-        <v>541.66666666666663</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>20</v>
-      </c>
-      <c r="G19" s="9">
-        <v>770</v>
-      </c>
-      <c r="H19" s="9">
-        <v>495</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>280</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>279.02403846153902</v>
-      </c>
-      <c r="M19" s="9">
-        <v>88.94434294871796</v>
-      </c>
-      <c r="N19" s="9">
-        <v>100</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="46">
+        <v>400</v>
+      </c>
+      <c r="I19" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="46">
+        <v>500</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1580</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B20" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46">
         <v>2000</v>
       </c>
-      <c r="E20" s="9">
-        <v>260</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3380</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1155</v>
-      </c>
-      <c r="I20" s="9">
-        <v>876</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1460</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>123.20663461538462</v>
-      </c>
-      <c r="N20" s="9">
-        <v>188.24325320512824</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G20" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H20" s="46">
+        <v>400</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46">
+        <v>500</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9">
-        <v>520</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1052.0833333333333</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2720</v>
-      </c>
-      <c r="G21" s="9">
-        <v>979.99999999999989</v>
-      </c>
-      <c r="H21" s="9">
-        <v>550</v>
-      </c>
-      <c r="I21" s="9">
-        <v>318</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>2661.9611378205136</v>
-      </c>
-      <c r="M21" s="9">
-        <v>12.00344551282052</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="46">
+        <v>500</v>
+      </c>
+      <c r="D21" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="46">
+        <v>960</v>
+      </c>
+      <c r="F21" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="46">
+        <v>400</v>
+      </c>
+      <c r="I21" s="46">
+        <v>1800</v>
+      </c>
+      <c r="J21" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1740</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2114.5833333333335</v>
-      </c>
-      <c r="E22" s="9">
-        <v>112</v>
-      </c>
-      <c r="F22" s="9">
-        <v>4440</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1931.9999999999998</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1100</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1976</v>
-      </c>
-      <c r="J22" s="9">
-        <v>2750</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>6308.2036057692312</v>
-      </c>
-      <c r="M22" s="9">
-        <v>210.22410256410254</v>
-      </c>
-      <c r="N22" s="9">
-        <v>289.15324519230768</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="46">
+        <v>480</v>
+      </c>
+      <c r="F22" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="46">
+        <v>800</v>
+      </c>
+      <c r="I22" s="46">
+        <v>1800</v>
+      </c>
+      <c r="J22" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1900</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2718.75</v>
-      </c>
-      <c r="E23" s="9">
-        <v>638</v>
-      </c>
-      <c r="F23" s="9">
-        <v>4380</v>
-      </c>
-      <c r="G23" s="9">
-        <v>2029.9999999999998</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1390</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1940</v>
-      </c>
-      <c r="J23" s="9">
-        <v>2660</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>7110.712339743588</v>
-      </c>
-      <c r="M23" s="9">
-        <v>208.30738782051284</v>
-      </c>
-      <c r="N23" s="9">
-        <v>286.52690705128208</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="46">
+        <v>960</v>
+      </c>
+      <c r="F23" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="46">
+        <v>800</v>
+      </c>
+      <c r="I23" s="46">
+        <v>2600</v>
+      </c>
+      <c r="J23" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2740</v>
-      </c>
-      <c r="D24" s="9">
-        <v>3697.916666666667</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5980</v>
-      </c>
-      <c r="G24" s="9">
-        <v>7300</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="B24" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="46">
         <v>2000</v>
       </c>
-      <c r="I24" s="9">
-        <v>3150</v>
-      </c>
-      <c r="J24" s="9">
-        <v>3580</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>301.11386217948723</v>
-      </c>
-      <c r="N24" s="9">
-        <v>392.29738782051282</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H24" s="46">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="46">
+        <v>4400</v>
+      </c>
+      <c r="J24" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="9">
-        <v>2800</v>
-      </c>
-      <c r="D25" s="9">
-        <v>3052.0833333333335</v>
-      </c>
-      <c r="E25" s="9">
-        <v>94</v>
-      </c>
-      <c r="F25" s="9">
-        <v>4260</v>
-      </c>
-      <c r="G25" s="9">
-        <v>2128</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I25" s="9">
-        <v>2428</v>
-      </c>
-      <c r="J25" s="9">
-        <v>680</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="9">
-        <v>300</v>
-      </c>
-      <c r="N25" s="9">
-        <v>300</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E25" s="46">
+        <v>480</v>
+      </c>
+      <c r="F25" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H25" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="46">
+        <v>3600</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1041.6666666666665</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="46">
+        <v>500</v>
+      </c>
+      <c r="D26" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="46">
         <v>1000</v>
       </c>
-      <c r="F26" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="9">
-        <v>868</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1200</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>100</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H26" s="46">
+        <v>300</v>
+      </c>
+      <c r="I26" s="46">
+        <v>600</v>
+      </c>
+      <c r="J26" s="46">
+        <v>500</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="9">
-        <v>250</v>
-      </c>
-      <c r="D27" s="9">
-        <v>958.33333333333326</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>520</v>
-      </c>
-      <c r="I27" s="9">
-        <v>956</v>
-      </c>
-      <c r="J27" s="9">
-        <v>160</v>
-      </c>
-      <c r="K27" s="9">
-        <v>274.00160256410254</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>92.850929487179499</v>
-      </c>
-      <c r="N27" s="9">
-        <v>127.70294871794874</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="46">
+        <v>500</v>
+      </c>
+      <c r="D27" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="46">
+        <v>400</v>
+      </c>
+      <c r="I27" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="46">
+        <v>500</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2640</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2312.5</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1652</v>
-      </c>
-      <c r="F28" s="9">
-        <v>4100</v>
-      </c>
-      <c r="G28" s="9">
-        <v>2772</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1735</v>
-      </c>
-      <c r="I28" s="9">
-        <v>2946</v>
-      </c>
-      <c r="J28" s="9">
-        <v>3610</v>
-      </c>
-      <c r="K28" s="9">
-        <v>200</v>
-      </c>
-      <c r="L28" s="9">
-        <v>19446.725560897437</v>
-      </c>
-      <c r="M28" s="9">
-        <v>500</v>
-      </c>
-      <c r="N28" s="9">
-        <v>500</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G28" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="46">
+        <v>800</v>
+      </c>
+      <c r="I28" s="46">
+        <v>2000</v>
+      </c>
+      <c r="J28" s="46">
+        <v>3500</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="46">
+        <v>500</v>
+      </c>
+      <c r="D29" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46">
         <v>1000</v>
       </c>
-      <c r="D29" s="9">
-        <v>1093.75</v>
-      </c>
-      <c r="E29" s="9">
-        <v>108</v>
-      </c>
-      <c r="F29" s="9">
-        <v>3240</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1582</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1045</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1444</v>
-      </c>
-      <c r="J29" s="9">
-        <v>1630</v>
-      </c>
-      <c r="K29" s="9">
-        <v>630.02083333333326</v>
-      </c>
-      <c r="L29" s="9">
-        <v>9900</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>200</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G29" s="46"/>
+      <c r="H29" s="46">
+        <v>700</v>
+      </c>
+      <c r="I29" s="46">
+        <v>800</v>
+      </c>
+      <c r="J29" s="46">
+        <v>500</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1562.5</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>4060</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1386</v>
-      </c>
-      <c r="H30" s="9">
-        <v>820</v>
-      </c>
-      <c r="I30" s="9">
-        <v>2178</v>
-      </c>
-      <c r="J30" s="9">
-        <v>1890</v>
-      </c>
-      <c r="K30" s="9">
-        <v>398.71153846153834</v>
-      </c>
-      <c r="L30" s="9">
-        <v>300.97580128205118</v>
-      </c>
-      <c r="M30" s="9">
-        <v>143.79750000000001</v>
-      </c>
-      <c r="N30" s="9">
-        <v>197.78740384615381</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="46">
+        <v>500</v>
+      </c>
+      <c r="D30" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="46">
+        <v>480</v>
+      </c>
+      <c r="F30" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="46">
+        <v>600</v>
+      </c>
+      <c r="I30" s="46">
+        <v>1400</v>
+      </c>
+      <c r="J30" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3550</v>
-      </c>
-      <c r="D31" s="9">
-        <v>4854.1666666666661</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>8620</v>
-      </c>
-      <c r="G31" s="9">
-        <v>3821.9999999999995</v>
-      </c>
-      <c r="H31" s="9">
-        <v>2145</v>
-      </c>
-      <c r="I31" s="9">
-        <v>5798</v>
-      </c>
-      <c r="J31" s="9">
-        <v>4230</v>
-      </c>
-      <c r="K31" s="9">
-        <v>2437.7163461538462</v>
-      </c>
-      <c r="L31" s="9">
-        <v>21992.823157051283</v>
-      </c>
-      <c r="M31" s="9">
-        <v>392.37166666666667</v>
-      </c>
-      <c r="N31" s="9">
-        <v>467.21588141025654</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H31" s="46">
+        <v>1400</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="9">
-        <v>5090</v>
-      </c>
-      <c r="D32" s="9">
-        <v>7291.666666666667</v>
-      </c>
-      <c r="E32" s="9">
-        <v>805</v>
-      </c>
-      <c r="F32" s="9">
-        <v>12760</v>
-      </c>
-      <c r="G32" s="9">
-        <v>4942</v>
-      </c>
-      <c r="H32" s="9">
-        <v>3720</v>
-      </c>
-      <c r="I32" s="9">
-        <v>5370</v>
-      </c>
-      <c r="J32" s="9">
-        <v>6160</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>42733.662499999999</v>
-      </c>
-      <c r="M32" s="9">
-        <v>159.0076602564103</v>
-      </c>
-      <c r="N32" s="9">
-        <v>518.90987179487183</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="46">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="46">
+        <v>480</v>
+      </c>
+      <c r="F32" s="46">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="46">
+        <v>3500</v>
+      </c>
+      <c r="H32" s="46">
+        <v>2100</v>
+      </c>
+      <c r="I32" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J32" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="9">
-        <v>2870</v>
-      </c>
-      <c r="D33" s="9">
-        <v>3125</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>3900</v>
-      </c>
-      <c r="G33" s="9">
-        <v>2142</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1600</v>
-      </c>
-      <c r="I33" s="9">
-        <v>294</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1540</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>3564.6688301282084</v>
-      </c>
-      <c r="M33" s="9">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>312.38792467948724</v>
-      </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F33" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H33" s="46">
+        <v>800</v>
+      </c>
+      <c r="I33" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J33" s="46">
+        <v>4000</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="9">
-        <v>4300</v>
-      </c>
-      <c r="D34" s="9">
-        <v>6156.2500000000009</v>
-      </c>
-      <c r="E34" s="9">
-        <v>216</v>
-      </c>
-      <c r="F34" s="9">
-        <v>8320</v>
-      </c>
-      <c r="G34" s="9">
-        <v>6076</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2945</v>
-      </c>
-      <c r="I34" s="9">
-        <v>4730</v>
-      </c>
-      <c r="J34" s="9">
-        <v>6430</v>
-      </c>
-      <c r="K34" s="9">
-        <v>337.71153846153857</v>
-      </c>
-      <c r="L34" s="9">
-        <v>14431.711778846155</v>
-      </c>
-      <c r="M34" s="9">
-        <v>472.36044871794871</v>
-      </c>
-      <c r="N34" s="9">
-        <v>649.72240384615395</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D34" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E34" s="46">
+        <v>480</v>
+      </c>
+      <c r="F34" s="46">
+        <v>9000</v>
+      </c>
+      <c r="G34" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H34" s="46">
+        <v>1700</v>
+      </c>
+      <c r="I34" s="46">
+        <v>5800</v>
+      </c>
+      <c r="J34" s="46">
+        <v>3500</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="9">
-        <v>1730</v>
-      </c>
-      <c r="D35" s="9">
-        <v>4500</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>7120</v>
-      </c>
-      <c r="G35" s="9">
-        <v>4242</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1895</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>6780</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>6263.6140224358969</v>
-      </c>
-      <c r="M35" s="9">
-        <v>265.01548076923081</v>
-      </c>
-      <c r="N35" s="9">
-        <v>439.61209935897443</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D35" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46">
+        <v>8000</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46">
+        <v>1700</v>
+      </c>
+      <c r="I35" s="46">
+        <v>6800</v>
+      </c>
+      <c r="J35" s="46">
+        <v>2500</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="9">
-        <v>4000</v>
-      </c>
-      <c r="D36" s="9">
-        <v>6250</v>
-      </c>
-      <c r="E36" s="9">
-        <v>123</v>
-      </c>
-      <c r="F36" s="9">
-        <v>10560</v>
-      </c>
-      <c r="G36" s="9">
-        <v>4031.9999999999995</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="B36" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D36" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G36" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H36" s="46">
         <v>2100</v>
       </c>
-      <c r="I36" s="9">
-        <v>4200</v>
-      </c>
-      <c r="J36" s="9">
-        <v>3470</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>33000</v>
-      </c>
-      <c r="M36" s="9">
-        <v>400</v>
-      </c>
-      <c r="N36" s="9">
-        <v>500</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="46">
+        <v>3000</v>
+      </c>
+      <c r="J36" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="46">
+        <v>500</v>
+      </c>
+      <c r="D37" s="46">
         <v>2000</v>
       </c>
-      <c r="D37" s="9">
-        <v>1270.8333333333333</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="E37" s="46"/>
+      <c r="F37" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G37" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="46">
         <v>400</v>
       </c>
-      <c r="F37" s="9">
-        <v>1320</v>
-      </c>
-      <c r="G37" s="9">
-        <v>2290</v>
-      </c>
-      <c r="H37" s="9">
-        <v>565</v>
-      </c>
-      <c r="I37" s="9">
-        <v>4000</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1150</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>200</v>
-      </c>
-      <c r="N37" s="9">
-        <v>100</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I37" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J37" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="9">
-        <v>4280</v>
-      </c>
-      <c r="D38" s="9">
-        <v>6250</v>
-      </c>
-      <c r="E38" s="9">
-        <v>3205</v>
-      </c>
-      <c r="F38" s="9">
-        <v>11280</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>7570</v>
-      </c>
-      <c r="I38" s="9">
-        <v>8700</v>
-      </c>
-      <c r="J38" s="9">
-        <v>9000</v>
-      </c>
-      <c r="K38" s="9">
-        <v>3924.2772435897436</v>
-      </c>
-      <c r="L38" s="9">
-        <v>36407.358092948714</v>
-      </c>
-      <c r="M38" s="9">
-        <v>470.75099358974359</v>
-      </c>
-      <c r="N38" s="9">
-        <v>647.50574519230781</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="46">
+        <v>8000</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46">
+        <v>11000</v>
+      </c>
+      <c r="G38" s="46">
+        <v>3500</v>
+      </c>
+      <c r="H38" s="46">
+        <v>1700</v>
+      </c>
+      <c r="I38" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J38" s="46">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="9">
-        <v>3930</v>
-      </c>
-      <c r="D39" s="9">
-        <v>5635.4166666666661</v>
-      </c>
-      <c r="E39" s="9">
-        <v>141</v>
-      </c>
-      <c r="F39" s="9">
-        <v>8180</v>
-      </c>
-      <c r="G39" s="9">
-        <v>4087.9999999999995</v>
-      </c>
-      <c r="H39" s="9">
-        <v>2875</v>
-      </c>
-      <c r="I39" s="9">
-        <v>4668</v>
-      </c>
-      <c r="J39" s="9">
-        <v>120</v>
-      </c>
-      <c r="K39" s="9">
-        <v>100.92307692307668</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>431.96312500000005</v>
-      </c>
-      <c r="N39" s="9">
-        <v>500</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D39" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E39" s="46">
+        <v>1920</v>
+      </c>
+      <c r="F39" s="46">
+        <v>9000</v>
+      </c>
+      <c r="G39" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H39" s="46">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="46">
+        <v>6800</v>
+      </c>
+      <c r="J39" s="46">
+        <v>6500</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1900</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1989.5833333333333</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>3880</v>
-      </c>
-      <c r="G40" s="9">
-        <v>2435.9999999999982</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1390</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1944</v>
-      </c>
-      <c r="J40" s="9">
-        <v>3170</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>6131.3492788461535</v>
-      </c>
-      <c r="M40" s="9">
-        <v>108.58538461538464</v>
-      </c>
-      <c r="N40" s="9">
-        <v>186.90000801282059</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="46">
+        <v>500</v>
+      </c>
+      <c r="D40" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46">
+        <v>800</v>
+      </c>
+      <c r="I40" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="9">
-        <v>480</v>
-      </c>
-      <c r="D41" s="9">
-        <v>520.83333333333326</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1580</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>970</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="B41" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="46">
+        <v>500</v>
+      </c>
+      <c r="D41" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46">
+        <v>300</v>
+      </c>
+      <c r="I41" s="46">
         <v>400</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="46">
         <v>500</v>
       </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="9">
-        <v>2050</v>
-      </c>
-      <c r="D42" s="9">
-        <v>1375</v>
-      </c>
-      <c r="E42" s="9">
-        <v>33</v>
-      </c>
-      <c r="F42" s="9">
-        <v>3360</v>
-      </c>
-      <c r="G42" s="9">
-        <v>2043.9999999999998</v>
-      </c>
-      <c r="H42" s="9">
+      <c r="B42" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="46">
+        <v>500</v>
+      </c>
+      <c r="D42" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H42" s="46">
+        <v>800</v>
+      </c>
+      <c r="I42" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J42" s="46">
         <v>1000</v>
       </c>
-      <c r="I42" s="9">
-        <v>2458</v>
-      </c>
-      <c r="J42" s="9">
-        <v>2000</v>
-      </c>
-      <c r="K42" s="9">
-        <v>377.2099358974358</v>
-      </c>
-      <c r="L42" s="9">
-        <v>7515.1690705128203</v>
-      </c>
-      <c r="M42" s="9">
-        <v>225.17740384615385</v>
-      </c>
-      <c r="N42" s="9">
-        <v>309.72500801282052</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="9">
+      <c r="B43" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="46">
         <v>3000</v>
       </c>
-      <c r="D43" s="9">
-        <v>2125</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1109</v>
-      </c>
-      <c r="F43" s="9">
-        <v>2600</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>1200</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1000</v>
-      </c>
-      <c r="K43" s="9">
-        <v>1357.2628205128206</v>
-      </c>
-      <c r="L43" s="9">
-        <v>9900</v>
-      </c>
-      <c r="M43" s="9">
-        <v>162.81833333333336</v>
-      </c>
-      <c r="N43" s="9">
-        <v>223.94104967948724</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E43" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F43" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G43" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H43" s="46">
+        <v>600</v>
+      </c>
+      <c r="I43" s="46">
+        <v>2400</v>
+      </c>
+      <c r="J43" s="46">
+        <v>4000</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="9">
-        <v>12210</v>
-      </c>
-      <c r="D44" s="9">
-        <v>17812.5</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>34120</v>
-      </c>
-      <c r="G44" s="9">
-        <v>13062</v>
-      </c>
-      <c r="H44" s="9">
-        <v>9100</v>
-      </c>
-      <c r="I44" s="9">
-        <v>16000</v>
-      </c>
-      <c r="J44" s="9">
-        <v>13450</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>64354.943028846159</v>
-      </c>
-      <c r="M44" s="9">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9">
-        <v>291.53408653846168</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="46">
+        <v>4000</v>
+      </c>
+      <c r="D44" s="46">
+        <v>18000</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46">
+        <v>27000</v>
+      </c>
+      <c r="G44" s="46">
+        <v>9000</v>
+      </c>
+      <c r="H44" s="46">
+        <v>6300</v>
+      </c>
+      <c r="I44" s="46">
+        <v>20000</v>
+      </c>
+      <c r="J44" s="46">
+        <v>15000</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="9">
-        <v>4100</v>
-      </c>
-      <c r="D45" s="9">
-        <v>4854.1666666666661</v>
-      </c>
-      <c r="E45" s="9">
-        <v>3066</v>
-      </c>
-      <c r="F45" s="9">
-        <v>10220</v>
-      </c>
-      <c r="G45" s="9">
-        <v>4228</v>
-      </c>
-      <c r="H45" s="9">
-        <v>1310</v>
-      </c>
-      <c r="I45" s="9">
-        <v>5826</v>
-      </c>
-      <c r="J45" s="9">
-        <v>4810</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <v>31827.039423076923</v>
-      </c>
-      <c r="M45" s="9">
-        <v>450.31091346153852</v>
-      </c>
-      <c r="N45" s="9">
-        <v>419.39880608974363</v>
-      </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D45" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46">
+        <v>9000</v>
+      </c>
+      <c r="G45" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="46">
+        <v>1800</v>
+      </c>
+      <c r="I45" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J45" s="46">
+        <v>4500</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="9">
-        <v>6750</v>
-      </c>
-      <c r="D46" s="9">
-        <v>3427.0833333333335</v>
-      </c>
-      <c r="E46" s="9">
-        <v>182</v>
-      </c>
-      <c r="F46" s="9">
-        <v>7280</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>2655</v>
-      </c>
-      <c r="I46" s="9">
-        <v>4536</v>
-      </c>
-      <c r="J46" s="9">
-        <v>3960</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9">
-        <v>298.55961538461548</v>
-      </c>
-      <c r="N46" s="9">
-        <v>448.20967948717953</v>
-      </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
+      <c r="B46" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D46" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46">
+        <v>8000</v>
+      </c>
+      <c r="G46" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H46" s="46">
+        <v>1700</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2895.8333333333335</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <v>4440</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>1800</v>
-      </c>
-      <c r="I47" s="9">
-        <v>312</v>
-      </c>
-      <c r="J47" s="9">
-        <v>360</v>
-      </c>
-      <c r="K47" s="9">
+        <v>176</v>
+      </c>
+      <c r="C47" s="46">
         <v>1000</v>
       </c>
-      <c r="L47" s="9">
-        <v>6600</v>
-      </c>
-      <c r="M47" s="9">
-        <v>100</v>
-      </c>
-      <c r="N47" s="9">
-        <v>100</v>
-      </c>
-      <c r="O47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G47" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="46">
+        <v>700</v>
+      </c>
+      <c r="I47" s="46">
+        <v>1400</v>
+      </c>
+      <c r="J47" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="9">
-        <v>330</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1031.25</v>
-      </c>
-      <c r="E48" s="9">
-        <v>671</v>
-      </c>
-      <c r="F48" s="9">
-        <v>460</v>
-      </c>
-      <c r="G48" s="9">
-        <v>909.99999999999989</v>
-      </c>
-      <c r="H48" s="9">
-        <v>570</v>
-      </c>
-      <c r="I48" s="9">
-        <v>722</v>
+      <c r="B48" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="46">
+        <v>500</v>
+      </c>
+      <c r="D48" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="46">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="46">
+        <v>400</v>
+      </c>
+      <c r="I48" s="46">
+        <v>1600</v>
       </c>
       <c r="J48" s="46">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9">
-        <v>821.48717948717956</v>
-      </c>
-      <c r="L48" s="9">
-        <v>6897.5</v>
-      </c>
-      <c r="M48" s="9">
-        <v>98.542548076923097</v>
-      </c>
-      <c r="N48" s="9">
-        <v>135.54538461538462</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="9">
-        <v>5840</v>
-      </c>
-      <c r="D49" s="9">
-        <v>8364.5833333333321</v>
-      </c>
-      <c r="E49" s="9">
-        <v>4218</v>
-      </c>
-      <c r="F49" s="9">
-        <v>12840</v>
-      </c>
-      <c r="G49" s="9">
-        <v>6048</v>
-      </c>
-      <c r="H49" s="9">
-        <v>4270</v>
-      </c>
-      <c r="I49" s="9">
-        <v>11732</v>
-      </c>
-      <c r="J49" s="9">
-        <v>2810</v>
-      </c>
-      <c r="K49" s="9">
-        <v>3349.1105769230771</v>
-      </c>
-      <c r="L49" s="9">
-        <v>49625.394070512819</v>
-      </c>
-      <c r="M49" s="9">
-        <v>600</v>
-      </c>
-      <c r="N49" s="9">
-        <v>882.58861378205131</v>
-      </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="46">
+        <v>2500</v>
+      </c>
+      <c r="D49" s="46">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="46">
+        <v>480</v>
+      </c>
+      <c r="F49" s="46">
+        <v>13000</v>
+      </c>
+      <c r="G49" s="46">
+        <v>4000</v>
+      </c>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46">
+        <v>2200</v>
+      </c>
+      <c r="J49" s="46">
+        <v>13000</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="9">
-        <v>1160</v>
-      </c>
-      <c r="D50" s="9">
-        <v>1729.1666666666667</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>3180</v>
-      </c>
-      <c r="G50" s="9">
-        <v>1428</v>
-      </c>
-      <c r="H50" s="9">
-        <v>965</v>
-      </c>
-      <c r="I50" s="9">
-        <v>2336</v>
-      </c>
-      <c r="J50" s="9">
-        <v>1820</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <v>7809.468189102563</v>
-      </c>
-      <c r="M50" s="9">
-        <v>155.28315705128207</v>
-      </c>
-      <c r="N50" s="9">
-        <v>200</v>
-      </c>
-      <c r="O50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="46">
+        <v>500</v>
+      </c>
+      <c r="D50" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46">
+        <v>700</v>
+      </c>
+      <c r="I50" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="B51" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46">
         <v>3000</v>
       </c>
-      <c r="D51" s="9">
-        <v>3125</v>
-      </c>
-      <c r="E51" s="9">
-        <v>280</v>
-      </c>
-      <c r="F51" s="9">
-        <v>5540</v>
-      </c>
-      <c r="G51" s="9">
-        <v>3192</v>
-      </c>
-      <c r="H51" s="9">
-        <v>2800</v>
-      </c>
-      <c r="I51" s="9">
-        <v>3732</v>
-      </c>
-      <c r="J51" s="9">
-        <v>1890</v>
-      </c>
-      <c r="K51" s="9">
-        <v>3300</v>
-      </c>
-      <c r="L51" s="9">
-        <v>19898.407532051282</v>
-      </c>
-      <c r="M51" s="9">
-        <v>800</v>
-      </c>
-      <c r="N51" s="9">
-        <v>700</v>
-      </c>
-      <c r="O51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E51" s="46">
+        <v>480</v>
+      </c>
+      <c r="F51" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G51" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H51" s="46">
+        <v>1600</v>
+      </c>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="9">
-        <v>6620</v>
-      </c>
-      <c r="D52" s="9">
-        <v>8833.3333333333339</v>
-      </c>
-      <c r="E52" s="9">
-        <v>866</v>
-      </c>
-      <c r="F52" s="9">
-        <v>18340</v>
-      </c>
-      <c r="G52" s="9">
-        <v>13030</v>
-      </c>
-      <c r="H52" s="9">
-        <v>4185</v>
-      </c>
-      <c r="I52" s="9">
-        <v>8666</v>
-      </c>
-      <c r="J52" s="9">
-        <v>11790</v>
-      </c>
-      <c r="K52" s="9">
-        <v>2808.0769230769229</v>
-      </c>
-      <c r="L52" s="9">
-        <v>38125.256490384614</v>
-      </c>
-      <c r="M52" s="9">
-        <v>592.67128205128211</v>
-      </c>
-      <c r="N52" s="9">
-        <v>710.318060897436</v>
-      </c>
-      <c r="O52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="46">
+        <v>2500</v>
+      </c>
+      <c r="D52" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="46">
+        <v>960</v>
+      </c>
+      <c r="F52" s="46">
+        <v>14000</v>
+      </c>
+      <c r="G52" s="46">
+        <v>4500</v>
+      </c>
+      <c r="H52" s="46">
+        <v>3300</v>
+      </c>
+      <c r="I52" s="46">
+        <v>12200</v>
+      </c>
+      <c r="J52" s="46">
+        <v>15500</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="9">
-        <v>1260</v>
-      </c>
-      <c r="D53" s="9">
-        <v>1604.1666666666667</v>
-      </c>
-      <c r="E53" s="9">
-        <v>777</v>
-      </c>
-      <c r="F53" s="9">
-        <v>2200</v>
-      </c>
-      <c r="G53" s="9">
-        <v>1516</v>
-      </c>
-      <c r="H53" s="9">
-        <v>920</v>
-      </c>
-      <c r="I53" s="9">
-        <v>1760</v>
-      </c>
-      <c r="J53" s="9">
-        <v>2750</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>10145.754246794872</v>
-      </c>
-      <c r="M53" s="9">
-        <v>87.652307692307687</v>
-      </c>
-      <c r="N53" s="9">
-        <v>0</v>
-      </c>
-      <c r="O53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="46">
+        <v>500</v>
+      </c>
+      <c r="D53" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G53" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="46">
+        <v>600</v>
+      </c>
+      <c r="I53" s="46">
+        <v>1200</v>
+      </c>
+      <c r="J53" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="9">
+      <c r="B54" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="46">
         <v>3000</v>
       </c>
-      <c r="D54" s="9">
-        <v>2427.083333333333</v>
-      </c>
-      <c r="E54" s="9">
-        <v>2400</v>
-      </c>
-      <c r="F54" s="9">
-        <v>4280</v>
-      </c>
-      <c r="G54" s="9">
-        <v>1750</v>
-      </c>
-      <c r="H54" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I54" s="9">
-        <v>2874</v>
-      </c>
-      <c r="J54" s="9">
-        <v>2000</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <v>3300</v>
-      </c>
-      <c r="M54" s="9">
-        <v>300</v>
-      </c>
-      <c r="N54" s="9">
-        <v>200</v>
-      </c>
-      <c r="O54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E54" s="46"/>
+      <c r="F54" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J54" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D55" s="9">
-        <v>3541.666666666667</v>
-      </c>
-      <c r="E55" s="9">
-        <v>1176</v>
-      </c>
-      <c r="F55" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G55" s="9">
-        <v>4500</v>
-      </c>
-      <c r="H55" s="9">
-        <v>1600</v>
-      </c>
-      <c r="I55" s="9">
+      <c r="B55" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="46">
         <v>4000</v>
       </c>
-      <c r="J55" s="9">
-        <v>2260</v>
-      </c>
-      <c r="K55" s="9">
-        <v>14.899038461538566</v>
-      </c>
-      <c r="L55" s="9">
-        <v>10259.702884615384</v>
-      </c>
-      <c r="M55" s="9">
-        <v>213.68280448717951</v>
-      </c>
-      <c r="N55" s="9">
-        <v>331.45834134615387</v>
-      </c>
-      <c r="O55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E55" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F55" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G55" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H55" s="46">
+        <v>1100</v>
+      </c>
+      <c r="I55" s="46">
+        <v>4200</v>
+      </c>
+      <c r="J55" s="46">
+        <v>5500</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="9">
-        <v>1380</v>
-      </c>
-      <c r="D56" s="9">
-        <v>3249.9999999999995</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1549</v>
-      </c>
-      <c r="F56" s="9">
-        <v>4640</v>
-      </c>
-      <c r="G56" s="9">
-        <v>2310</v>
-      </c>
-      <c r="H56" s="9">
-        <v>1601</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
-        <v>3980</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <v>17452.583333333332</v>
-      </c>
-      <c r="M56" s="9">
-        <v>199.39238782051282</v>
-      </c>
-      <c r="N56" s="9">
-        <v>0</v>
-      </c>
-      <c r="O56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G56" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H56" s="46">
+        <v>1300</v>
+      </c>
+      <c r="I56" s="46">
+        <v>4800</v>
+      </c>
+      <c r="J56" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="9">
-        <v>4970</v>
-      </c>
-      <c r="D57" s="9">
-        <v>5208.333333333333</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
-        <v>6720</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
+      <c r="B57" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="46">
         <v>4000</v>
       </c>
-      <c r="I57" s="9">
-        <v>2334</v>
-      </c>
-      <c r="J57" s="9">
-        <v>3181.666666666667</v>
-      </c>
-      <c r="K57" s="9">
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <v>33000</v>
-      </c>
-      <c r="M57" s="9">
-        <v>1000</v>
-      </c>
-      <c r="N57" s="9">
-        <v>500</v>
-      </c>
-      <c r="O57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E57" s="46"/>
+      <c r="F57" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G57" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H57" s="46">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="46">
+        <v>4000</v>
+      </c>
+      <c r="J57" s="46">
+        <v>6000</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="9">
-        <v>1680</v>
-      </c>
-      <c r="D58" s="9">
-        <v>2302.0833333333335</v>
-      </c>
-      <c r="E58" s="9">
-        <v>517</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1700</v>
-      </c>
-      <c r="G58" s="9">
-        <v>1764</v>
-      </c>
-      <c r="H58" s="9">
-        <v>1120</v>
-      </c>
-      <c r="I58" s="9">
-        <v>140</v>
-      </c>
-      <c r="J58" s="9">
-        <v>1520</v>
-      </c>
-      <c r="K58" s="9">
-        <v>0</v>
-      </c>
-      <c r="L58" s="9">
-        <v>1073.40625</v>
-      </c>
-      <c r="M58" s="9">
-        <v>0</v>
-      </c>
-      <c r="N58" s="9">
-        <v>253.84765224358975</v>
-      </c>
-      <c r="O58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="46">
+        <v>500</v>
+      </c>
+      <c r="I58" s="46">
+        <v>2400</v>
+      </c>
+      <c r="J58" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="46">
-        <v>0</v>
-      </c>
-      <c r="D59" s="9">
-        <v>2083.333333333333</v>
+      <c r="B59" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46">
+        <v>3000</v>
       </c>
       <c r="E59" s="46">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2500</v>
-      </c>
-      <c r="G59" s="9">
-        <v>1792</v>
-      </c>
-      <c r="H59" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I59" s="9">
-        <v>2066</v>
-      </c>
-      <c r="J59" s="46">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9">
-        <v>0</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9">
-        <v>200</v>
-      </c>
-      <c r="N59" s="9">
-        <v>300</v>
-      </c>
-      <c r="O59" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1440</v>
+      </c>
+      <c r="F59" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="46">
+        <v>800</v>
+      </c>
+      <c r="I59" s="46">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="9">
-        <v>1860</v>
-      </c>
-      <c r="D60" s="9">
-        <v>1645.8333333333333</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>1360</v>
-      </c>
-      <c r="G60" s="9">
-        <v>4102</v>
-      </c>
-      <c r="H60" s="9">
-        <v>805</v>
-      </c>
-      <c r="I60" s="9">
-        <v>1864</v>
-      </c>
-      <c r="J60" s="9">
-        <v>1710</v>
-      </c>
-      <c r="K60" s="9">
-        <v>380.13621794871801</v>
-      </c>
-      <c r="L60" s="9">
-        <v>14142.097516025642</v>
-      </c>
-      <c r="M60" s="9">
-        <v>225.52855769230771</v>
-      </c>
-      <c r="N60" s="9">
-        <v>300</v>
-      </c>
-      <c r="O60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="46">
+        <v>500</v>
+      </c>
+      <c r="D60" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="46">
+        <v>800</v>
+      </c>
+      <c r="I60" s="46">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="9">
+      <c r="B61" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="46">
+        <v>700</v>
+      </c>
+      <c r="I61" s="46">
+        <v>2200</v>
+      </c>
+      <c r="J61" s="46">
         <v>4000</v>
       </c>
-      <c r="D61" s="9">
-        <v>1041.6666666666665</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
-        <v>4000</v>
-      </c>
-      <c r="G61" s="9">
-        <v>2280</v>
-      </c>
-      <c r="H61" s="9">
-        <v>645</v>
-      </c>
-      <c r="I61" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J61" s="9">
-        <v>2000</v>
-      </c>
-      <c r="K61" s="9">
-        <v>0</v>
-      </c>
-      <c r="L61" s="9">
-        <v>10771.759855769231</v>
-      </c>
-      <c r="M61" s="9">
-        <v>200</v>
-      </c>
-      <c r="N61" s="9">
-        <v>200</v>
-      </c>
-      <c r="O61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="9">
-        <v>1250</v>
-      </c>
-      <c r="D62" s="9">
-        <v>2937.5</v>
-      </c>
-      <c r="E62" s="9">
-        <v>105</v>
-      </c>
-      <c r="F62" s="9">
-        <v>4460</v>
-      </c>
-      <c r="G62" s="9">
-        <v>2226</v>
-      </c>
-      <c r="H62" s="9">
-        <v>1150</v>
-      </c>
-      <c r="I62" s="9">
-        <v>2564</v>
-      </c>
-      <c r="J62" s="9">
-        <v>2800</v>
-      </c>
-      <c r="K62" s="9">
-        <v>0</v>
-      </c>
-      <c r="L62" s="9">
-        <v>3237.6814903846134</v>
-      </c>
-      <c r="M62" s="9">
-        <v>225.47003205128203</v>
-      </c>
-      <c r="N62" s="9">
-        <v>0</v>
-      </c>
-      <c r="O62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G62" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H62" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="46">
+        <v>2600</v>
+      </c>
+      <c r="J62" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="9">
-        <v>740</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1125</v>
-      </c>
-      <c r="E63" s="9">
-        <v>116</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="B63" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46">
         <v>2000</v>
       </c>
-      <c r="G63" s="9">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9">
-        <v>585</v>
-      </c>
-      <c r="I63" s="9">
-        <v>656</v>
-      </c>
-      <c r="J63" s="9">
-        <v>500</v>
-      </c>
-      <c r="K63" s="9">
-        <v>0</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0</v>
-      </c>
-      <c r="M63" s="9">
-        <v>0</v>
-      </c>
-      <c r="N63" s="9">
-        <v>0</v>
-      </c>
-      <c r="O63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E63" s="46">
+        <v>480</v>
+      </c>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="46">
+        <v>200</v>
+      </c>
+      <c r="I63" s="46">
+        <v>400</v>
+      </c>
+      <c r="J63" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="9">
-        <v>770</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1520.8333333333333</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>3580</v>
-      </c>
-      <c r="G64" s="9">
-        <v>4120</v>
-      </c>
-      <c r="H64" s="9">
-        <v>1375</v>
-      </c>
-      <c r="I64" s="9">
-        <v>572</v>
-      </c>
-      <c r="J64" s="9">
-        <v>1410</v>
-      </c>
-      <c r="K64" s="9">
-        <v>0</v>
-      </c>
-      <c r="L64" s="9">
-        <v>12233.780528846153</v>
-      </c>
-      <c r="M64" s="9">
-        <v>0</v>
-      </c>
-      <c r="N64" s="9">
-        <v>0</v>
-      </c>
-      <c r="O64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="46">
+        <v>500</v>
+      </c>
+      <c r="D64" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G64" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H64" s="46">
+        <v>700</v>
+      </c>
+      <c r="I64" s="46">
+        <v>2000</v>
+      </c>
+      <c r="J64" s="46"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="9">
-        <v>2760</v>
-      </c>
-      <c r="D65" s="9">
-        <v>3020.8333333333335</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>5600</v>
-      </c>
-      <c r="G65" s="9">
-        <v>4300</v>
-      </c>
-      <c r="H65" s="9">
-        <v>1970</v>
-      </c>
-      <c r="I65" s="9">
-        <v>3736</v>
-      </c>
-      <c r="J65" s="9">
-        <v>4060</v>
-      </c>
-      <c r="K65" s="9">
-        <v>728.97275641025635</v>
-      </c>
-      <c r="L65" s="9">
-        <v>13662.683413461538</v>
-      </c>
-      <c r="M65" s="9">
-        <v>293.36766025641026</v>
-      </c>
-      <c r="N65" s="9">
-        <v>297.2805048076923</v>
-      </c>
-      <c r="O65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E65" s="46">
+        <v>480</v>
+      </c>
+      <c r="F65" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G65" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H65" s="46">
+        <v>1300</v>
+      </c>
+      <c r="I65" s="46">
+        <v>3400</v>
+      </c>
+      <c r="J65" s="46">
+        <v>4000</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="9">
-        <v>3210</v>
-      </c>
-      <c r="D66" s="9">
-        <v>4791.666666666667</v>
-      </c>
-      <c r="E66" s="9">
-        <v>722</v>
-      </c>
-      <c r="F66" s="9">
-        <v>8480</v>
-      </c>
-      <c r="G66" s="9">
-        <v>5800</v>
-      </c>
-      <c r="H66" s="9">
-        <v>2710</v>
-      </c>
-      <c r="I66" s="9">
-        <v>5698</v>
-      </c>
-      <c r="J66" s="9">
-        <v>5130</v>
-      </c>
-      <c r="K66" s="9">
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
-        <v>19491.490224358975</v>
-      </c>
-      <c r="M66" s="9">
-        <v>207.19214743589743</v>
-      </c>
-      <c r="N66" s="9">
-        <v>260.07575320512831</v>
-      </c>
-      <c r="O66" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="46">
+        <v>500</v>
+      </c>
+      <c r="D66" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="46">
+        <v>480</v>
+      </c>
+      <c r="F66" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1280</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1510.4166666666667</v>
-      </c>
-      <c r="E67" s="9">
-        <v>800</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="B67" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="46">
+        <v>500</v>
+      </c>
+      <c r="D67" s="46">
         <v>2000</v>
       </c>
-      <c r="G67" s="9">
-        <v>1162</v>
-      </c>
-      <c r="H67" s="9">
-        <v>760</v>
+      <c r="E67" s="46">
+        <v>960</v>
+      </c>
+      <c r="F67" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G67" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="46">
+        <v>500</v>
       </c>
       <c r="I67" s="46">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J67" s="46">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-      <c r="M67" s="9">
-        <v>500</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-      <c r="O67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="9">
-        <v>2270</v>
-      </c>
-      <c r="D68" s="9">
-        <v>3494.791666666667</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="B68" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D68" s="46">
         <v>5000</v>
       </c>
-      <c r="G68" s="9">
-        <v>3542</v>
-      </c>
-      <c r="H68" s="9">
-        <v>2340</v>
-      </c>
-      <c r="I68" s="9">
-        <v>406</v>
-      </c>
-      <c r="J68" s="9">
-        <v>910</v>
-      </c>
-      <c r="K68" s="9">
-        <v>1177.5432692307695</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
-      <c r="M68" s="9">
-        <v>0</v>
-      </c>
-      <c r="N68" s="9">
-        <v>324.28000801282053</v>
-      </c>
-      <c r="O68" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E68" s="46">
+        <v>1920</v>
+      </c>
+      <c r="F68" s="46">
+        <v>7000</v>
+      </c>
+      <c r="G68" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H68" s="46">
+        <v>1500</v>
+      </c>
+      <c r="I68" s="46">
+        <v>4800</v>
+      </c>
+      <c r="J68" s="46">
+        <v>4500</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="9">
-        <v>1890</v>
-      </c>
-      <c r="D69" s="9">
-        <v>2739.5833333333335</v>
-      </c>
-      <c r="E69" s="9">
-        <v>283</v>
-      </c>
-      <c r="F69" s="9">
-        <v>2140</v>
-      </c>
-      <c r="G69" s="9">
-        <v>5080</v>
-      </c>
-      <c r="H69" s="9">
-        <v>1150</v>
-      </c>
-      <c r="I69" s="9">
-        <v>2120</v>
-      </c>
-      <c r="J69" s="9">
-        <v>950</v>
-      </c>
-      <c r="K69" s="9">
-        <v>0</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0</v>
-      </c>
-      <c r="M69" s="9">
-        <v>187.83243589743589</v>
-      </c>
-      <c r="N69" s="9">
-        <v>199.62201923076924</v>
-      </c>
-      <c r="O69" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F69" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G69" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H69" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I69" s="46">
+        <v>3400</v>
+      </c>
+      <c r="J69" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>69</v>
       </c>
-      <c r="B70" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="9">
-        <v>5000</v>
-      </c>
-      <c r="D70" s="9">
-        <v>5208.333333333333</v>
-      </c>
-      <c r="E70" s="9">
-        <v>72</v>
-      </c>
-      <c r="F70" s="9">
-        <v>8080</v>
-      </c>
-      <c r="G70" s="9">
-        <v>3947.9999999999995</v>
-      </c>
-      <c r="H70" s="9">
-        <v>2640</v>
-      </c>
-      <c r="I70" s="9">
-        <v>5376</v>
-      </c>
-      <c r="J70" s="9">
-        <v>8016</v>
-      </c>
-      <c r="K70" s="9">
-        <v>0</v>
-      </c>
-      <c r="L70" s="9">
-        <v>23628.803044871795</v>
-      </c>
-      <c r="M70" s="9">
-        <v>500</v>
-      </c>
-      <c r="N70" s="9">
-        <v>500</v>
-      </c>
-      <c r="O70" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D70" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46">
+        <v>8000</v>
+      </c>
+      <c r="G70" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H70" s="46">
+        <v>2100</v>
+      </c>
+      <c r="I70" s="46">
+        <v>4400</v>
+      </c>
+      <c r="J70" s="46">
+        <v>4500</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="46">
-        <v>0</v>
-      </c>
-      <c r="D71" s="46">
-        <v>0</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1663</v>
-      </c>
-      <c r="F71" s="9">
-        <v>6205</v>
-      </c>
-      <c r="G71" s="46">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9">
-        <v>30</v>
-      </c>
-      <c r="I71" s="9">
-        <v>602</v>
-      </c>
-      <c r="J71" s="9">
-        <v>4164</v>
-      </c>
-      <c r="K71" s="9">
-        <v>136.69230769230785</v>
-      </c>
-      <c r="L71" s="9">
-        <v>16994.803685897437</v>
-      </c>
-      <c r="M71" s="9">
-        <v>0</v>
-      </c>
-      <c r="N71" s="9">
-        <v>0</v>
-      </c>
-      <c r="O71" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46">
+        <v>200</v>
+      </c>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="9">
-        <v>730</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1145.8333333333333</v>
-      </c>
-      <c r="E72" s="9">
-        <v>600</v>
-      </c>
-      <c r="F72" s="9">
-        <v>1640</v>
-      </c>
-      <c r="G72" s="9">
-        <v>826</v>
-      </c>
-      <c r="H72" s="9">
+      <c r="B72" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="46">
+        <v>500</v>
+      </c>
+      <c r="D72" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G72" s="46">
         <v>1000</v>
       </c>
-      <c r="I72" s="9">
-        <v>1362</v>
-      </c>
-      <c r="J72" s="9">
-        <v>1760</v>
-      </c>
-      <c r="K72" s="9">
-        <v>0</v>
-      </c>
-      <c r="L72" s="9">
-        <v>4793.1975160256407</v>
-      </c>
-      <c r="M72" s="9">
-        <v>100</v>
-      </c>
-      <c r="N72" s="9">
-        <v>200</v>
-      </c>
-      <c r="O72" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H72" s="46">
+        <v>300</v>
+      </c>
+      <c r="I72" s="46">
+        <v>1200</v>
+      </c>
+      <c r="J72" s="46"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="9">
-        <v>1580</v>
-      </c>
-      <c r="D73" s="9">
-        <v>2468.75</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="B73" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="46">
+        <v>500</v>
+      </c>
+      <c r="D73" s="46">
         <v>4000</v>
       </c>
-      <c r="F73" s="9">
-        <v>3660</v>
-      </c>
-      <c r="G73" s="9">
-        <v>2880</v>
-      </c>
-      <c r="H73" s="9">
+      <c r="E73" s="46"/>
+      <c r="F73" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G73" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H73" s="46">
+        <v>1600</v>
+      </c>
+      <c r="I73" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J73" s="46">
         <v>1000</v>
       </c>
-      <c r="I73" s="9">
-        <v>1200</v>
-      </c>
-      <c r="J73" s="9">
-        <v>6000</v>
-      </c>
-      <c r="K73" s="9">
-        <v>1800</v>
-      </c>
-      <c r="L73" s="9">
-        <v>6600</v>
-      </c>
-      <c r="M73" s="9">
-        <v>300</v>
-      </c>
-      <c r="N73" s="9">
-        <v>400</v>
-      </c>
-      <c r="O73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="9">
-        <v>2080</v>
-      </c>
-      <c r="D74" s="9">
-        <v>2218.75</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="B74" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D74" s="46">
         <v>3000</v>
       </c>
-      <c r="G74" s="9">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
-        <v>830</v>
-      </c>
-      <c r="I74" s="9">
-        <v>2000</v>
-      </c>
-      <c r="J74" s="9">
-        <v>2000</v>
-      </c>
-      <c r="K74" s="9">
+      <c r="E74" s="46"/>
+      <c r="F74" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G74" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H74" s="46">
+        <v>700</v>
+      </c>
+      <c r="I74" s="46">
+        <v>2400</v>
+      </c>
+      <c r="J74" s="46">
         <v>3000</v>
       </c>
-      <c r="L74" s="9">
-        <v>12700</v>
-      </c>
-      <c r="M74" s="9">
-        <v>300</v>
-      </c>
-      <c r="N74" s="9">
-        <v>148.61972756410259</v>
-      </c>
-      <c r="O74" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="9">
-        <v>2480</v>
-      </c>
-      <c r="D75" s="9">
-        <v>2510.4166666666665</v>
+      <c r="B75" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D75" s="46">
+        <v>4000</v>
       </c>
       <c r="E75" s="46">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
-        <v>700</v>
-      </c>
-      <c r="G75" s="9">
-        <v>2562</v>
-      </c>
-      <c r="H75" s="9">
-        <v>915</v>
+        <v>960</v>
+      </c>
+      <c r="F75" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G75" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H75" s="46">
+        <v>1100</v>
       </c>
       <c r="I75" s="46">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="J75" s="46">
-        <v>0</v>
-      </c>
-      <c r="K75" s="9">
-        <v>0</v>
-      </c>
-      <c r="L75" s="9">
-        <v>11083.469791666666</v>
-      </c>
-      <c r="M75" s="9">
-        <v>72.612435897435887</v>
-      </c>
-      <c r="N75" s="9">
-        <v>174.96646634615394</v>
-      </c>
-      <c r="O75" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="9">
-        <v>2480</v>
-      </c>
-      <c r="D76" s="9">
-        <v>3552.0833333333335</v>
-      </c>
-      <c r="E76" s="9">
-        <v>52</v>
-      </c>
-      <c r="F76" s="9">
-        <v>5060</v>
-      </c>
-      <c r="G76" s="9">
-        <v>2534</v>
-      </c>
-      <c r="H76" s="9">
-        <v>1810</v>
-      </c>
-      <c r="I76" s="9">
-        <v>2542</v>
-      </c>
-      <c r="J76" s="9">
-        <v>1930</v>
-      </c>
-      <c r="K76" s="9">
-        <v>0</v>
-      </c>
-      <c r="L76" s="9">
-        <v>7831.6213942307695</v>
-      </c>
-      <c r="M76" s="9">
-        <v>171.93939102564104</v>
-      </c>
-      <c r="N76" s="9">
-        <v>174.04468750000007</v>
-      </c>
-      <c r="O76" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D76" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="46">
+        <v>480</v>
+      </c>
+      <c r="F76" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G76" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H76" s="46">
+        <v>1100</v>
+      </c>
+      <c r="I76" s="46">
+        <v>2600</v>
+      </c>
+      <c r="J76" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="9">
-        <v>4060</v>
-      </c>
-      <c r="D77" s="9">
-        <v>5812.5000000000009</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
-        <v>10080</v>
-      </c>
-      <c r="G77" s="9">
-        <v>4130</v>
-      </c>
-      <c r="H77" s="9">
-        <v>2770</v>
-      </c>
-      <c r="I77" s="9">
-        <v>7032</v>
-      </c>
-      <c r="J77" s="9">
-        <v>2800</v>
-      </c>
-      <c r="K77" s="9">
-        <v>1717.5753205128203</v>
-      </c>
-      <c r="L77" s="9">
-        <v>25089.133653846155</v>
-      </c>
-      <c r="M77" s="9">
-        <v>445.95075320512825</v>
-      </c>
-      <c r="N77" s="9">
-        <v>600</v>
-      </c>
-      <c r="O77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D77" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G77" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H77" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I77" s="46">
+        <v>3800</v>
+      </c>
+      <c r="J77" s="46">
+        <v>8000</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="9">
+      <c r="B78" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D78" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46">
         <v>8000</v>
       </c>
-      <c r="D78" s="9">
-        <v>5656.25</v>
-      </c>
-      <c r="E78" s="9">
-        <v>2337</v>
-      </c>
-      <c r="F78" s="9">
-        <v>2300</v>
-      </c>
-      <c r="G78" s="9">
-        <v>4242</v>
-      </c>
-      <c r="H78" s="9">
+      <c r="G78" s="46"/>
+      <c r="H78" s="46">
         <v>2000</v>
       </c>
-      <c r="I78" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J78" s="9">
-        <v>5000</v>
-      </c>
-      <c r="K78" s="9">
-        <v>9000</v>
-      </c>
-      <c r="L78" s="9">
-        <v>0</v>
-      </c>
-      <c r="M78" s="9">
-        <v>1000</v>
-      </c>
-      <c r="N78" s="9">
-        <v>800</v>
-      </c>
-      <c r="O78" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I78" s="46">
+        <v>6000</v>
+      </c>
+      <c r="J78" s="46">
+        <v>6000</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="9">
-        <v>3950</v>
-      </c>
-      <c r="D79" s="9">
-        <v>5656.25</v>
-      </c>
-      <c r="E79" s="9">
-        <v>453</v>
-      </c>
-      <c r="F79" s="9">
-        <v>9740</v>
-      </c>
-      <c r="G79" s="9">
-        <v>4087.9999999999995</v>
-      </c>
-      <c r="H79" s="9">
-        <v>2890</v>
-      </c>
-      <c r="I79" s="9">
-        <v>5702</v>
-      </c>
-      <c r="J79" s="9">
-        <v>5660</v>
-      </c>
-      <c r="K79" s="9">
-        <v>1816.352564102564</v>
-      </c>
-      <c r="L79" s="9">
-        <v>18550.535336538458</v>
-      </c>
-      <c r="M79" s="9">
-        <v>0</v>
-      </c>
-      <c r="N79" s="9">
-        <v>296.69817307692313</v>
-      </c>
-      <c r="O79" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="46">
+        <v>500</v>
+      </c>
+      <c r="D79" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G79" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H79" s="46">
+        <v>1600</v>
+      </c>
+      <c r="I79" s="46">
+        <v>2400</v>
+      </c>
+      <c r="J79" s="46"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>79</v>
       </c>
-      <c r="B80" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1864.5833333333333</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>3780</v>
-      </c>
-      <c r="G80" s="9">
-        <v>2270</v>
-      </c>
-      <c r="H80" s="9">
-        <v>1200</v>
-      </c>
-      <c r="I80" s="9">
-        <v>1282</v>
-      </c>
-      <c r="J80" s="9">
-        <v>1960</v>
-      </c>
-      <c r="K80" s="9">
-        <v>0</v>
-      </c>
-      <c r="L80" s="9">
-        <v>0</v>
-      </c>
-      <c r="M80" s="9">
+      <c r="B80" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="46">
+        <v>500</v>
+      </c>
+      <c r="D80" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46">
+        <v>600</v>
+      </c>
+      <c r="I80" s="46">
         <v>400</v>
       </c>
-      <c r="N80" s="9">
-        <v>1000</v>
-      </c>
-      <c r="O80" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J80" s="46"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="9">
-        <v>2720</v>
-      </c>
-      <c r="D81" s="9">
-        <v>3791.6666666666665</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
-        <v>6420</v>
-      </c>
-      <c r="G81" s="9">
-        <v>2856</v>
-      </c>
-      <c r="H81" s="9">
-        <v>1990</v>
-      </c>
-      <c r="I81" s="9">
-        <v>3642</v>
-      </c>
-      <c r="J81" s="9">
-        <v>3960</v>
-      </c>
-      <c r="K81" s="9">
-        <v>687.73878205128221</v>
-      </c>
-      <c r="L81" s="9">
-        <v>13079.087740384613</v>
-      </c>
-      <c r="M81" s="9">
-        <v>298.40761217948716</v>
-      </c>
-      <c r="N81" s="9">
-        <v>410.46226762820515</v>
-      </c>
-      <c r="O81" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D81" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="46">
+        <v>2400</v>
+      </c>
+      <c r="F81" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G81" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H81" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I81" s="46">
+        <v>4800</v>
+      </c>
+      <c r="J81" s="46">
+        <v>5000</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="9">
-        <v>810</v>
-      </c>
-      <c r="D82" s="9">
-        <v>989.58333333333337</v>
-      </c>
-      <c r="E82" s="9">
+      <c r="B82" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="46">
+        <v>500</v>
+      </c>
+      <c r="D82" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E82" s="46">
+        <v>960</v>
+      </c>
+      <c r="F82" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G82" s="46">
         <v>1000</v>
       </c>
-      <c r="F82" s="9">
-        <v>1820</v>
-      </c>
-      <c r="G82" s="9">
-        <v>909.99999999999989</v>
-      </c>
-      <c r="H82" s="9">
-        <v>640</v>
-      </c>
-      <c r="I82" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J82" s="9">
-        <v>360</v>
-      </c>
-      <c r="K82" s="9">
-        <v>0</v>
-      </c>
-      <c r="L82" s="9">
-        <v>0</v>
-      </c>
-      <c r="M82" s="9">
-        <v>100</v>
-      </c>
-      <c r="N82" s="9">
-        <v>0</v>
-      </c>
-      <c r="O82" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H82" s="46">
+        <v>400</v>
+      </c>
+      <c r="I82" s="46">
+        <v>1800</v>
+      </c>
+      <c r="J82" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="9">
+      <c r="B83" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="46">
+        <v>480</v>
+      </c>
+      <c r="F83" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="46">
         <v>1000</v>
       </c>
-      <c r="D83" s="9">
-        <v>1437.5</v>
-      </c>
-      <c r="E83" s="9">
-        <v>652</v>
-      </c>
-      <c r="F83" s="9">
-        <v>1100</v>
-      </c>
-      <c r="G83" s="9">
-        <v>1330</v>
-      </c>
-      <c r="H83" s="9">
-        <v>635</v>
-      </c>
-      <c r="I83" s="9">
-        <v>876</v>
-      </c>
-      <c r="J83" s="9">
-        <v>900</v>
-      </c>
-      <c r="K83" s="9">
-        <v>0</v>
-      </c>
-      <c r="L83" s="9">
-        <v>0</v>
-      </c>
-      <c r="M83" s="9">
-        <v>109.77947115384616</v>
-      </c>
-      <c r="N83" s="9">
-        <v>130.98883814102564</v>
-      </c>
-      <c r="O83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H83" s="46">
+        <v>400</v>
+      </c>
+      <c r="I83" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J83" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>83</v>
       </c>
-      <c r="B84" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="9">
-        <v>4500</v>
-      </c>
-      <c r="D84" s="9">
-        <v>3020.8333333333335</v>
-      </c>
-      <c r="E84" s="9">
-        <v>4500</v>
-      </c>
-      <c r="F84" s="9">
-        <v>6280</v>
-      </c>
-      <c r="G84" s="9">
-        <v>2170</v>
-      </c>
-      <c r="H84" s="9">
-        <v>4500</v>
-      </c>
-      <c r="I84" s="9">
+      <c r="B84" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D84" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E84" s="46">
+        <v>4800</v>
+      </c>
+      <c r="F84" s="46">
         <v>5000</v>
       </c>
-      <c r="J84" s="9">
-        <v>4500</v>
-      </c>
-      <c r="K84" s="9">
-        <v>3000</v>
-      </c>
-      <c r="L84" s="9">
-        <v>25170</v>
-      </c>
-      <c r="M84" s="9">
-        <v>1000</v>
-      </c>
-      <c r="N84" s="9">
-        <v>900</v>
-      </c>
-      <c r="O84" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G84" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H84" s="46">
+        <v>1200</v>
+      </c>
+      <c r="I84" s="46">
+        <v>5000</v>
+      </c>
+      <c r="J84" s="46">
+        <v>5000</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="9">
-        <v>4450</v>
-      </c>
-      <c r="D85" s="9">
-        <v>7500</v>
-      </c>
-      <c r="E85" s="9">
-        <v>1146</v>
-      </c>
-      <c r="F85" s="9">
-        <v>14620</v>
-      </c>
-      <c r="G85" s="9">
-        <v>11552</v>
-      </c>
-      <c r="H85" s="9">
-        <v>3185</v>
-      </c>
-      <c r="I85" s="9">
-        <v>7514</v>
-      </c>
-      <c r="J85" s="9">
-        <v>4166</v>
-      </c>
-      <c r="K85" s="9">
-        <v>2817.770833333333</v>
-      </c>
-      <c r="L85" s="9">
-        <v>45990.855208333327</v>
-      </c>
-      <c r="M85" s="9">
-        <v>661.89573717948724</v>
-      </c>
-      <c r="N85" s="9">
-        <v>700</v>
-      </c>
-      <c r="O85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="46">
+        <v>2500</v>
+      </c>
+      <c r="D85" s="46">
+        <v>8000</v>
+      </c>
+      <c r="E85" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F85" s="46">
+        <v>12000</v>
+      </c>
+      <c r="G85" s="46">
+        <v>4000</v>
+      </c>
+      <c r="H85" s="46">
+        <v>3200</v>
+      </c>
+      <c r="I85" s="46">
+        <v>6000</v>
+      </c>
+      <c r="J85" s="46">
+        <v>12500</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="9">
+      <c r="B86" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="46">
+        <v>7000</v>
+      </c>
+      <c r="E86" s="46">
+        <v>2400</v>
+      </c>
+      <c r="F86" s="46">
+        <v>10000</v>
+      </c>
+      <c r="G86" s="46">
+        <v>3500</v>
+      </c>
+      <c r="H86" s="46">
+        <v>2100</v>
+      </c>
+      <c r="I86" s="46">
         <v>6000</v>
       </c>
-      <c r="D86" s="9">
-        <v>7031.25</v>
-      </c>
-      <c r="E86" s="9">
-        <v>2400</v>
-      </c>
-      <c r="F86" s="9">
-        <v>13520</v>
-      </c>
-      <c r="G86" s="9">
-        <v>5166</v>
-      </c>
-      <c r="H86" s="9">
-        <v>3620</v>
-      </c>
-      <c r="I86" s="9">
-        <v>7972</v>
-      </c>
-      <c r="J86" s="9">
-        <v>6160</v>
-      </c>
-      <c r="K86" s="9">
-        <v>0</v>
-      </c>
-      <c r="L86" s="9">
-        <v>0</v>
-      </c>
-      <c r="M86" s="9">
-        <v>600</v>
-      </c>
-      <c r="N86" s="9">
-        <v>669.05618589743597</v>
-      </c>
-      <c r="O86" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J86" s="46">
+        <v>6000</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="9">
+      <c r="B87" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="46">
+        <v>500</v>
+      </c>
+      <c r="D87" s="46">
         <v>2000</v>
       </c>
-      <c r="D87" s="9">
-        <v>1697.9166666666667</v>
-      </c>
-      <c r="E87" s="9">
-        <v>200</v>
-      </c>
-      <c r="F87" s="9">
-        <v>2860</v>
-      </c>
-      <c r="G87" s="9">
-        <v>2790</v>
-      </c>
-      <c r="H87" s="9">
-        <v>1030</v>
-      </c>
-      <c r="I87" s="9">
-        <v>1916</v>
-      </c>
-      <c r="J87" s="9">
-        <v>2080</v>
-      </c>
-      <c r="K87" s="9">
-        <v>0</v>
-      </c>
-      <c r="L87" s="9">
-        <v>0</v>
-      </c>
-      <c r="M87" s="9">
-        <v>100</v>
-      </c>
-      <c r="N87" s="9">
-        <v>100</v>
-      </c>
-      <c r="O87" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E87" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F87" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G87" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H87" s="46">
+        <v>300</v>
+      </c>
+      <c r="I87" s="46">
+        <v>2000</v>
+      </c>
+      <c r="J87" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>87</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="9">
-        <v>1190</v>
-      </c>
-      <c r="D88" s="9">
-        <v>2416.6666666666665</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>3420</v>
-      </c>
-      <c r="G88" s="9">
-        <v>1708</v>
-      </c>
-      <c r="H88" s="9">
-        <v>1235</v>
-      </c>
-      <c r="I88" s="9">
-        <v>2006</v>
-      </c>
-      <c r="J88" s="9">
-        <v>2710</v>
-      </c>
-      <c r="K88" s="9">
-        <v>1546.0080128205129</v>
-      </c>
-      <c r="L88" s="9">
-        <v>11342.38669871795</v>
-      </c>
-      <c r="M88" s="9">
-        <v>185.45312500000003</v>
-      </c>
-      <c r="N88" s="9">
-        <v>255.07669070512824</v>
-      </c>
-      <c r="O88" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="46">
+        <v>500</v>
+      </c>
+      <c r="D88" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G88" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H88" s="46">
+        <v>600</v>
+      </c>
+      <c r="I88" s="46">
+        <v>2600</v>
+      </c>
+      <c r="J88" s="46"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="9">
-        <v>1560</v>
-      </c>
-      <c r="D89" s="9">
-        <v>2208.3333333333335</v>
-      </c>
-      <c r="E89" s="9">
-        <v>303</v>
-      </c>
-      <c r="F89" s="9">
-        <v>2860</v>
-      </c>
-      <c r="G89" s="9">
-        <v>1820</v>
-      </c>
-      <c r="H89" s="9">
-        <v>1140</v>
-      </c>
-      <c r="I89" s="9">
-        <v>1734</v>
-      </c>
-      <c r="J89" s="9">
-        <v>2200</v>
-      </c>
-      <c r="K89" s="9">
-        <v>0</v>
-      </c>
-      <c r="L89" s="9">
-        <v>4346.9663461538457</v>
-      </c>
-      <c r="M89" s="9">
-        <v>0</v>
-      </c>
-      <c r="N89" s="9">
-        <v>194.9585016025641</v>
-      </c>
-      <c r="O89" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="46">
+        <v>500</v>
+      </c>
+      <c r="D89" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G89" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H89" s="46">
+        <v>600</v>
+      </c>
+      <c r="I89" s="46">
+        <v>1800</v>
+      </c>
+      <c r="J89" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>89</v>
       </c>
-      <c r="B90" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="9">
-        <v>1460</v>
-      </c>
-      <c r="D90" s="9">
-        <v>2250</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <v>5160</v>
-      </c>
-      <c r="G90" s="9">
-        <v>2023.999999999998</v>
-      </c>
-      <c r="H90" s="9">
-        <v>960</v>
-      </c>
-      <c r="I90" s="9">
-        <v>3462</v>
-      </c>
-      <c r="J90" s="9">
-        <v>3080</v>
-      </c>
-      <c r="K90" s="9">
-        <v>0</v>
-      </c>
-      <c r="L90" s="9">
-        <v>6792.9513621794849</v>
-      </c>
-      <c r="M90" s="9">
-        <v>104.21059294871796</v>
-      </c>
-      <c r="N90" s="9">
-        <v>80.871866987179544</v>
-      </c>
-      <c r="O90" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="46">
+        <v>500</v>
+      </c>
+      <c r="D90" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G90" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H90" s="46">
+        <v>900</v>
+      </c>
+      <c r="I90" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J90" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>90</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="9">
-        <v>2190</v>
-      </c>
-      <c r="D91" s="9">
-        <v>1729.1666666666667</v>
-      </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="9">
-        <v>1780</v>
-      </c>
-      <c r="G91" s="9">
-        <v>2288</v>
-      </c>
-      <c r="H91" s="9">
-        <v>1550</v>
-      </c>
-      <c r="I91" s="9">
-        <v>2940</v>
-      </c>
-      <c r="J91" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K91" s="9">
-        <v>0</v>
-      </c>
-      <c r="L91" s="9">
-        <v>11967.452483974357</v>
-      </c>
-      <c r="M91" s="9">
-        <v>240.08681089743592</v>
-      </c>
-      <c r="N91" s="9">
-        <v>0</v>
-      </c>
-      <c r="O91" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="46">
+        <v>500</v>
+      </c>
+      <c r="D91" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46">
+        <v>100</v>
+      </c>
+      <c r="I91" s="46">
+        <v>600</v>
+      </c>
+      <c r="J91" s="46">
+        <v>500</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="9">
-        <v>1080</v>
-      </c>
-      <c r="D92" s="9">
-        <v>1531.2499999999998</v>
-      </c>
-      <c r="E92" s="9">
-        <v>881</v>
-      </c>
-      <c r="F92" s="9">
-        <v>2520</v>
-      </c>
-      <c r="G92" s="9">
-        <v>1320</v>
-      </c>
-      <c r="H92" s="9">
-        <v>825</v>
-      </c>
-      <c r="I92" s="9">
-        <v>1448</v>
-      </c>
-      <c r="J92" s="9">
-        <v>1390</v>
-      </c>
-      <c r="K92" s="9">
-        <v>78.733974358974365</v>
-      </c>
-      <c r="L92" s="9">
-        <v>9707.5587339743597</v>
-      </c>
-      <c r="M92" s="9">
-        <v>119.40019230769232</v>
-      </c>
-      <c r="N92" s="9">
-        <v>147.98379006410258</v>
-      </c>
-      <c r="O92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="46">
+        <v>500</v>
+      </c>
+      <c r="D92" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G92" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H92" s="46">
+        <v>700</v>
+      </c>
+      <c r="I92" s="46">
+        <v>2200</v>
+      </c>
+      <c r="J92" s="46">
+        <v>2500</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="9">
-        <v>2130</v>
-      </c>
-      <c r="D93" s="9">
-        <v>4229.166666666667</v>
-      </c>
-      <c r="E93" s="9">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9">
-        <v>3980</v>
-      </c>
-      <c r="G93" s="9">
-        <v>3318</v>
-      </c>
-      <c r="H93" s="9">
-        <v>1800</v>
-      </c>
-      <c r="I93" s="9">
-        <v>4132</v>
-      </c>
-      <c r="J93" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K93" s="9">
-        <v>0</v>
-      </c>
-      <c r="L93" s="9">
-        <v>6600</v>
-      </c>
-      <c r="M93" s="9">
-        <v>400</v>
-      </c>
-      <c r="N93" s="9">
-        <v>400</v>
-      </c>
-      <c r="O93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D93" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E93" s="46">
+        <v>960</v>
+      </c>
+      <c r="F93" s="46">
+        <v>7000</v>
+      </c>
+      <c r="G93" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H93" s="46">
+        <v>1600</v>
+      </c>
+      <c r="I93" s="46">
+        <v>4000</v>
+      </c>
+      <c r="J93" s="46">
+        <v>2000</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="9">
-        <v>710</v>
-      </c>
-      <c r="D94" s="9">
-        <v>1520.8333333333333</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <v>2460</v>
-      </c>
-      <c r="G94" s="9">
-        <v>1232</v>
-      </c>
-      <c r="H94" s="9">
-        <v>865</v>
-      </c>
-      <c r="I94" s="9">
-        <v>2108</v>
-      </c>
-      <c r="J94" s="9">
-        <v>2150</v>
-      </c>
-      <c r="K94" s="9">
-        <v>0</v>
-      </c>
-      <c r="L94" s="9">
-        <v>4252.967387820514</v>
-      </c>
-      <c r="M94" s="9">
-        <v>0</v>
-      </c>
-      <c r="N94" s="9">
-        <v>0</v>
-      </c>
-      <c r="O94" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="46">
+        <v>500</v>
+      </c>
+      <c r="D94" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="46">
+        <v>960</v>
+      </c>
+      <c r="F94" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G94" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H94" s="46">
+        <v>800</v>
+      </c>
+      <c r="I94" s="46">
+        <v>2200</v>
+      </c>
+      <c r="J94" s="46">
+        <v>2500</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>94</v>
       </c>
-      <c r="B95" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="9">
-        <v>640</v>
-      </c>
-      <c r="D95" s="9">
-        <v>1041.6666666666665</v>
-      </c>
-      <c r="E95" s="9">
-        <v>600</v>
-      </c>
-      <c r="F95" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G95" s="9">
-        <v>1018</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0</v>
-      </c>
-      <c r="I95" s="9">
-        <v>1500</v>
-      </c>
-      <c r="J95" s="9">
-        <v>1500</v>
-      </c>
-      <c r="K95" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L95" s="9">
-        <v>4318.5</v>
-      </c>
-      <c r="M95" s="9">
-        <v>100</v>
-      </c>
-      <c r="N95" s="9">
-        <v>200</v>
-      </c>
-      <c r="O95" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46">
+        <v>400</v>
+      </c>
+      <c r="J95" s="46"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="9">
-        <v>4020</v>
-      </c>
-      <c r="D96" s="9">
-        <v>5760.416666666667</v>
-      </c>
-      <c r="E96" s="9">
-        <v>3006</v>
-      </c>
-      <c r="F96" s="9">
-        <v>11940</v>
-      </c>
-      <c r="G96" s="9">
-        <v>6498</v>
-      </c>
-      <c r="H96" s="9">
-        <v>2940</v>
-      </c>
-      <c r="I96" s="9">
-        <v>5348</v>
-      </c>
-      <c r="J96" s="9">
-        <v>7820</v>
-      </c>
-      <c r="K96" s="9">
-        <v>0</v>
-      </c>
-      <c r="L96" s="9">
-        <v>23944.93637820513</v>
-      </c>
-      <c r="M96" s="9">
-        <v>441.5028044871795</v>
-      </c>
-      <c r="N96" s="9">
-        <v>607.26936698717964</v>
-      </c>
-      <c r="O96" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D96" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46">
+        <v>9000</v>
+      </c>
+      <c r="G96" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H96" s="46">
+        <v>1400</v>
+      </c>
+      <c r="I96" s="46">
+        <v>6400</v>
+      </c>
+      <c r="J96" s="46">
+        <v>6000</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>96</v>
       </c>
-      <c r="B97" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="9">
-        <v>890</v>
-      </c>
-      <c r="D97" s="9">
-        <v>1468.75</v>
-      </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="9">
-        <v>800</v>
-      </c>
-      <c r="G97" s="9">
-        <v>0</v>
-      </c>
-      <c r="H97" s="9">
-        <v>915</v>
-      </c>
-      <c r="I97" s="9">
-        <v>1282</v>
-      </c>
-      <c r="J97" s="9">
-        <v>550</v>
-      </c>
-      <c r="K97" s="9">
-        <v>270.2724358974358</v>
-      </c>
-      <c r="L97" s="9">
-        <v>1885.0755608974359</v>
-      </c>
-      <c r="M97" s="9">
-        <v>52.386137820512829</v>
-      </c>
-      <c r="N97" s="9">
-        <v>109.59495192307693</v>
-      </c>
-      <c r="O97" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B97" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="46">
+        <v>500</v>
+      </c>
+      <c r="D97" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E97" s="46">
+        <v>480</v>
+      </c>
+      <c r="F97" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46">
+        <v>600</v>
+      </c>
+      <c r="I97" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J97" s="46">
+        <v>500</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="9">
+      <c r="B98" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="46">
+        <v>500</v>
+      </c>
+      <c r="D98" s="46">
         <v>1000</v>
       </c>
-      <c r="D98" s="9">
-        <v>994.79166666666663</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1080</v>
-      </c>
-      <c r="G98" s="9">
-        <v>0</v>
-      </c>
-      <c r="H98" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I98" s="9">
-        <v>1024</v>
-      </c>
-      <c r="J98" s="9">
+      <c r="E98" s="46">
+        <v>480</v>
+      </c>
+      <c r="F98" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G98" s="46">
         <v>1000</v>
       </c>
-      <c r="K98" s="9">
-        <v>0</v>
-      </c>
-      <c r="L98" s="9">
-        <v>7119.2500000000009</v>
-      </c>
-      <c r="M98" s="9">
-        <v>100</v>
-      </c>
-      <c r="N98" s="9">
-        <v>200</v>
-      </c>
-      <c r="O98" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H98" s="46">
+        <v>400</v>
+      </c>
+      <c r="I98" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J98" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="9">
-        <v>2780</v>
-      </c>
-      <c r="D99" s="9">
-        <v>3343.75</v>
-      </c>
-      <c r="E99" s="9">
-        <v>0</v>
-      </c>
-      <c r="F99" s="9">
-        <v>4660</v>
-      </c>
-      <c r="G99" s="9">
-        <v>3346</v>
-      </c>
-      <c r="H99" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I99" s="9">
-        <v>2816</v>
-      </c>
-      <c r="J99" s="9">
-        <v>2200</v>
-      </c>
-      <c r="K99" s="9">
-        <v>905.02564102564111</v>
-      </c>
-      <c r="L99" s="9">
-        <v>7078.4297275641002</v>
-      </c>
-      <c r="M99" s="9">
-        <v>360.4740544871795</v>
-      </c>
-      <c r="N99" s="9">
-        <v>295.81459935897442</v>
-      </c>
-      <c r="O99" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B99" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D99" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G99" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H99" s="46">
+        <v>1200</v>
+      </c>
+      <c r="I99" s="46">
+        <v>4400</v>
+      </c>
+      <c r="J99" s="46">
+        <v>5000</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C100" s="9">
-        <v>480</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1593.75</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>2580</v>
-      </c>
-      <c r="G100" s="9">
-        <v>1582</v>
-      </c>
-      <c r="H100" s="9">
-        <v>680</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0</v>
-      </c>
-      <c r="J100" s="9">
-        <v>840</v>
-      </c>
-      <c r="K100" s="9">
-        <v>0</v>
-      </c>
-      <c r="L100" s="9">
-        <v>4525.092387820514</v>
-      </c>
-      <c r="M100" s="9">
-        <v>61.95508012820514</v>
-      </c>
-      <c r="N100" s="9">
-        <v>230</v>
-      </c>
-      <c r="O100" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B100" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="46">
+        <v>500</v>
+      </c>
+      <c r="D100" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46">
+        <v>3000</v>
+      </c>
+      <c r="G100" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H100" s="46">
+        <v>600</v>
+      </c>
+      <c r="I100" s="46">
+        <v>1200</v>
+      </c>
+      <c r="J100" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>100</v>
       </c>
-      <c r="B101" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D101" s="9">
-        <v>3770.8333333333335</v>
-      </c>
-      <c r="E101" s="9">
-        <v>0</v>
-      </c>
-      <c r="F101" s="9">
-        <v>6400</v>
-      </c>
-      <c r="G101" s="9">
-        <v>3332</v>
-      </c>
-      <c r="H101" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I101" s="9">
-        <v>4000</v>
-      </c>
-      <c r="J101" s="9">
-        <v>3370</v>
-      </c>
-      <c r="K101" s="9">
-        <v>3600</v>
-      </c>
-      <c r="L101" s="9">
-        <v>13525.437339743588</v>
-      </c>
-      <c r="M101" s="9">
-        <v>300</v>
-      </c>
-      <c r="N101" s="9">
-        <v>400</v>
-      </c>
-      <c r="O101" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D101" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F101" s="46">
+        <v>7000</v>
+      </c>
+      <c r="G101" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H101" s="46">
+        <v>1400</v>
+      </c>
+      <c r="I101" s="46">
+        <v>4600</v>
+      </c>
+      <c r="J101" s="46">
+        <v>5000</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>101</v>
       </c>
-      <c r="B102" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C102" s="9">
-        <v>4290</v>
-      </c>
-      <c r="D102" s="9">
-        <v>6145.833333333333</v>
-      </c>
-      <c r="E102" s="9">
-        <v>173</v>
-      </c>
-      <c r="F102" s="9">
-        <v>11480</v>
-      </c>
-      <c r="G102" s="9">
-        <v>4466</v>
-      </c>
-      <c r="H102" s="9">
-        <v>3135</v>
+      <c r="B102" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E102" s="46">
+        <v>3360</v>
+      </c>
+      <c r="F102" s="46">
+        <v>9000</v>
+      </c>
+      <c r="G102" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H102" s="46">
+        <v>1900</v>
       </c>
       <c r="I102" s="46">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="J102" s="46">
-        <v>0</v>
-      </c>
-      <c r="K102" s="9">
-        <v>0</v>
-      </c>
-      <c r="L102" s="9">
-        <v>0</v>
-      </c>
-      <c r="M102" s="9">
-        <v>471.11677884615392</v>
-      </c>
-      <c r="N102" s="9">
-        <v>648.01784455128211</v>
-      </c>
-      <c r="O102" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>102</v>
       </c>
-      <c r="B103" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" s="9">
-        <v>430</v>
-      </c>
-      <c r="D103" s="9">
-        <v>1250</v>
-      </c>
-      <c r="E103" s="9">
-        <v>153</v>
-      </c>
-      <c r="F103" s="9">
-        <v>1770</v>
-      </c>
-      <c r="G103" s="9">
-        <v>2660</v>
-      </c>
-      <c r="H103" s="9">
-        <v>485</v>
-      </c>
-      <c r="I103" s="9">
-        <v>1428</v>
-      </c>
-      <c r="J103" s="9">
-        <v>1060</v>
-      </c>
-      <c r="K103" s="9">
-        <v>0</v>
-      </c>
-      <c r="L103" s="9">
-        <v>0</v>
-      </c>
-      <c r="M103" s="9">
-        <v>0</v>
-      </c>
-      <c r="N103" s="9">
-        <v>0</v>
-      </c>
-      <c r="O103" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B103" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="46">
+        <v>500</v>
+      </c>
+      <c r="D103" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E103" s="46">
+        <v>480</v>
+      </c>
+      <c r="F103" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G103" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="46">
+        <v>400</v>
+      </c>
+      <c r="I103" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J103" s="46">
+        <v>1500</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="9">
-        <v>2050</v>
-      </c>
-      <c r="D104" s="9">
-        <v>3593.7499999999995</v>
-      </c>
-      <c r="E104" s="9">
+      <c r="C104" s="46">
         <v>1000</v>
       </c>
-      <c r="F104" s="9">
-        <v>5380</v>
-      </c>
-      <c r="G104" s="9">
-        <v>2772</v>
-      </c>
-      <c r="H104" s="9">
-        <v>1765</v>
-      </c>
-      <c r="I104" s="9">
-        <v>3488</v>
-      </c>
-      <c r="J104" s="9">
-        <v>2130</v>
-      </c>
-      <c r="K104" s="9">
-        <v>0</v>
-      </c>
-      <c r="L104" s="9">
-        <v>0</v>
-      </c>
-      <c r="M104" s="9">
-        <v>254.6208814102564</v>
-      </c>
-      <c r="N104" s="9">
-        <v>0</v>
-      </c>
-      <c r="O104" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D104" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46">
+        <v>6000</v>
+      </c>
+      <c r="G104" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H104" s="46">
+        <v>1000</v>
+      </c>
+      <c r="I104" s="46">
+        <v>3000</v>
+      </c>
+      <c r="J104" s="46">
+        <v>4000</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C105" s="9">
-        <v>1750</v>
-      </c>
-      <c r="D105" s="9">
-        <v>2510.4166666666665</v>
-      </c>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
-        <v>2960</v>
-      </c>
-      <c r="G105" s="9">
-        <v>3880</v>
-      </c>
-      <c r="H105" s="9">
-        <v>1070</v>
-      </c>
-      <c r="I105" s="9">
-        <v>3062</v>
-      </c>
-      <c r="J105" s="9">
-        <v>3410</v>
-      </c>
-      <c r="K105" s="9">
-        <v>0</v>
-      </c>
-      <c r="L105" s="9">
-        <v>0</v>
-      </c>
-      <c r="M105" s="9">
-        <v>45.960753205128213</v>
-      </c>
-      <c r="N105" s="9">
+      <c r="B105" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="46">
         <v>500</v>
       </c>
-      <c r="O105" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D105" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G105" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H105" s="46">
+        <v>900</v>
+      </c>
+      <c r="I105" s="46">
+        <v>1600</v>
+      </c>
+      <c r="J105" s="46">
+        <v>1000</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="9">
-        <v>1820</v>
-      </c>
-      <c r="D106" s="9">
-        <v>2041.6666666666667</v>
-      </c>
-      <c r="E106" s="9">
-        <v>383</v>
-      </c>
-      <c r="F106" s="9">
-        <v>2800</v>
-      </c>
-      <c r="G106" s="9">
-        <v>0</v>
-      </c>
-      <c r="H106" s="9">
-        <v>1040</v>
-      </c>
-      <c r="I106" s="9">
-        <v>2528</v>
-      </c>
-      <c r="J106" s="9">
-        <v>1520</v>
-      </c>
-      <c r="K106" s="9">
-        <v>0</v>
-      </c>
-      <c r="L106" s="9">
-        <v>7386.7722756410258</v>
-      </c>
-      <c r="M106" s="9">
-        <v>0</v>
-      </c>
-      <c r="N106" s="9">
-        <v>200</v>
-      </c>
-      <c r="O106" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C106" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D106" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G106" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H106" s="46">
+        <v>700</v>
+      </c>
+      <c r="I106" s="46">
+        <v>3600</v>
+      </c>
+      <c r="J106" s="46">
+        <v>4000</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" s="9">
-        <v>1330</v>
-      </c>
-      <c r="D107" s="9">
-        <v>2312.5</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
-        <v>1720</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>1010</v>
-      </c>
-      <c r="I107" s="9">
-        <v>1094</v>
-      </c>
-      <c r="J107" s="9">
-        <v>830</v>
-      </c>
-      <c r="K107" s="9">
-        <v>440.42147435897436</v>
-      </c>
-      <c r="L107" s="9">
-        <v>1731.0304487179474</v>
-      </c>
-      <c r="M107" s="9">
-        <v>0</v>
-      </c>
-      <c r="N107" s="9">
-        <v>54.162227564102608</v>
-      </c>
-      <c r="O107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B107" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E107" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F107" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G107" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H107" s="46">
+        <v>700</v>
+      </c>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>107</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D108" s="9">
-        <v>2906.2500000000005</v>
-      </c>
-      <c r="E108" s="9">
-        <v>209</v>
-      </c>
-      <c r="F108" s="9">
-        <v>4620</v>
-      </c>
-      <c r="G108" s="9">
-        <v>2396</v>
-      </c>
-      <c r="H108" s="9">
+      <c r="C108" s="46">
+        <v>500</v>
+      </c>
+      <c r="D108" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46">
+        <v>4000</v>
+      </c>
+      <c r="G108" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H108" s="46">
+        <v>700</v>
+      </c>
+      <c r="I108" s="46">
         <v>2000</v>
       </c>
-      <c r="I108" s="9">
-        <v>2598</v>
-      </c>
-      <c r="J108" s="9">
-        <v>3000</v>
-      </c>
-      <c r="K108" s="9">
-        <v>3600</v>
-      </c>
-      <c r="L108" s="9">
-        <v>0</v>
-      </c>
-      <c r="M108" s="9">
-        <v>250</v>
-      </c>
-      <c r="N108" s="9">
-        <v>500</v>
-      </c>
-      <c r="O108" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J108" s="46">
+        <v>4500</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>108</v>
       </c>
-      <c r="B109" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="9">
-        <v>1590</v>
-      </c>
-      <c r="D109" s="9">
-        <v>2656.25</v>
-      </c>
-      <c r="E109" s="9">
-        <v>0</v>
-      </c>
-      <c r="F109" s="9">
-        <v>4000</v>
-      </c>
-      <c r="G109" s="9">
-        <v>0</v>
-      </c>
-      <c r="H109" s="9">
-        <v>1090</v>
-      </c>
-      <c r="I109" s="9">
-        <v>3366</v>
-      </c>
-      <c r="J109" s="9">
-        <v>2170</v>
-      </c>
-      <c r="K109" s="9">
-        <v>0</v>
-      </c>
-      <c r="L109" s="9">
-        <v>12049.07067307692</v>
-      </c>
-      <c r="M109" s="9">
-        <v>283.80546474358977</v>
-      </c>
-      <c r="N109" s="9">
-        <v>390.3660256410256</v>
-      </c>
-      <c r="O109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B109" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D109" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G109" s="46">
+        <v>2000</v>
+      </c>
+      <c r="H109" s="46">
+        <v>1200</v>
+      </c>
+      <c r="I109" s="46">
+        <v>2800</v>
+      </c>
+      <c r="J109" s="46">
+        <v>3000</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" s="9">
+      <c r="B110" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="46">
+        <v>2000</v>
+      </c>
+      <c r="D110" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E110" s="46">
+        <v>1440</v>
+      </c>
+      <c r="F110" s="46">
+        <v>7000</v>
+      </c>
+      <c r="G110" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H110" s="46">
+        <v>2000</v>
+      </c>
+      <c r="I110" s="46">
+        <v>8000</v>
+      </c>
+      <c r="J110" s="46">
         <v>5000</v>
       </c>
-      <c r="D110" s="9">
-        <v>5625</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <v>12000</v>
-      </c>
-      <c r="G110" s="9">
-        <v>4536</v>
-      </c>
-      <c r="H110" s="9">
-        <v>5000</v>
-      </c>
-      <c r="I110" s="9">
-        <v>8000</v>
-      </c>
-      <c r="J110" s="9">
-        <v>6000</v>
-      </c>
-      <c r="K110" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L110" s="9">
-        <v>25038.542868589742</v>
-      </c>
-      <c r="M110" s="9">
-        <v>500</v>
-      </c>
-      <c r="N110" s="9">
-        <v>0</v>
-      </c>
-      <c r="O110" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>110</v>
       </c>
-      <c r="B111" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C111" s="9">
-        <v>18920</v>
-      </c>
-      <c r="D111" s="9">
-        <v>14083.333333333332</v>
-      </c>
-      <c r="E111" s="9">
-        <v>0</v>
-      </c>
-      <c r="F111" s="9">
-        <v>29120</v>
-      </c>
-      <c r="G111" s="9">
-        <v>27980</v>
-      </c>
-      <c r="H111" s="9">
-        <v>10040</v>
-      </c>
-      <c r="I111" s="9">
-        <v>19932</v>
-      </c>
-      <c r="J111" s="9">
-        <v>15020</v>
-      </c>
-      <c r="K111" s="9">
-        <v>0</v>
-      </c>
-      <c r="L111" s="9">
-        <v>0</v>
-      </c>
-      <c r="M111" s="9">
-        <v>1700</v>
-      </c>
-      <c r="N111" s="9">
-        <v>2861.6551121794873</v>
-      </c>
-      <c r="O111" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B111" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="46">
+        <v>8000</v>
+      </c>
+      <c r="D111" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46">
+        <v>28000</v>
+      </c>
+      <c r="G111" s="46">
+        <v>14140</v>
+      </c>
+      <c r="H111" s="46">
+        <v>8900</v>
+      </c>
+      <c r="I111" s="46">
+        <v>18400</v>
+      </c>
+      <c r="J111" s="46">
+        <v>39000</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
-      <c r="B112" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C112" s="9">
-        <v>7470</v>
-      </c>
-      <c r="D112" s="9">
-        <v>5604.166666666667</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
-        <v>5520</v>
-      </c>
-      <c r="G112" s="9">
-        <v>6302</v>
-      </c>
-      <c r="H112" s="9">
-        <v>4500</v>
-      </c>
-      <c r="I112" s="9">
-        <v>7100</v>
-      </c>
-      <c r="J112" s="9">
-        <v>6200</v>
-      </c>
-      <c r="K112" s="9">
-        <v>0</v>
-      </c>
-      <c r="L112" s="9">
-        <v>0</v>
-      </c>
-      <c r="M112" s="9">
-        <v>489.50846153846163</v>
-      </c>
-      <c r="N112" s="9">
-        <v>673.3155528846155</v>
-      </c>
-      <c r="O112" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="46">
+        <v>1500</v>
+      </c>
+      <c r="D112" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E112" s="46">
+        <v>1920</v>
+      </c>
+      <c r="F112" s="46">
+        <v>8000</v>
+      </c>
+      <c r="G112" s="46">
+        <v>3000</v>
+      </c>
+      <c r="H112" s="46">
+        <v>1400</v>
+      </c>
+      <c r="I112" s="46">
+        <v>4600</v>
+      </c>
+      <c r="J112" s="46">
+        <v>3500</v>
+      </c>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <v>112</v>
       </c>
-      <c r="B113" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C113" s="9">
-        <v>1400</v>
-      </c>
-      <c r="D113" s="9">
+      <c r="B113" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="46">
+        <v>1000</v>
+      </c>
+      <c r="D113" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E113" s="46">
+        <v>480</v>
+      </c>
+      <c r="F113" s="46">
+        <v>5000</v>
+      </c>
+      <c r="G113" s="46">
+        <v>1500</v>
+      </c>
+      <c r="H113" s="46">
+        <v>800</v>
+      </c>
+      <c r="I113" s="46">
+        <v>3200</v>
+      </c>
+      <c r="J113" s="46">
         <v>2000</v>
       </c>
-      <c r="E113" s="9">
-        <v>101</v>
-      </c>
-      <c r="F113" s="9">
-        <v>1740</v>
-      </c>
-      <c r="G113" s="9">
-        <v>3540</v>
-      </c>
-      <c r="H113" s="9">
-        <v>400</v>
-      </c>
-      <c r="I113" s="9">
-        <v>1638</v>
-      </c>
-      <c r="J113" s="9">
-        <v>3472</v>
-      </c>
-      <c r="K113" s="9">
-        <v>0</v>
-      </c>
-      <c r="L113" s="9">
-        <v>0</v>
-      </c>
-      <c r="M113" s="9">
-        <v>0</v>
-      </c>
-      <c r="N113" s="9">
-        <v>0</v>
-      </c>
-      <c r="O113" s="9">
-        <v>0</v>
-      </c>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
     </row>
     <row r="114" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="47"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="17"/>
-      <c r="C114" s="48">
+      <c r="C114" s="44">
         <f>SUM(C2:C113)</f>
-        <v>299220</v>
-      </c>
-      <c r="D114" s="48">
+        <v>110000</v>
+      </c>
+      <c r="D114" s="44">
         <f t="shared" ref="D114:O114" si="0">SUM(D2:D113)</f>
-        <v>360000.00000000017</v>
-      </c>
-      <c r="E114" s="48">
+        <v>429000</v>
+      </c>
+      <c r="E114" s="44">
         <f t="shared" si="0"/>
-        <v>62017</v>
-      </c>
-      <c r="F114" s="48">
+        <v>70360</v>
+      </c>
+      <c r="F114" s="44">
         <f t="shared" si="0"/>
-        <v>578355</v>
-      </c>
-      <c r="G114" s="48">
+        <v>598000</v>
+      </c>
+      <c r="G114" s="44">
         <f t="shared" si="0"/>
-        <v>327146</v>
-      </c>
-      <c r="H114" s="48">
+        <v>207640</v>
+      </c>
+      <c r="H114" s="44">
         <f t="shared" si="0"/>
-        <v>209516</v>
-      </c>
-      <c r="I114" s="48">
+        <v>122600</v>
+      </c>
+      <c r="I114" s="44">
         <f t="shared" si="0"/>
-        <v>336470</v>
-      </c>
-      <c r="J114" s="48">
+        <v>353000</v>
+      </c>
+      <c r="J114" s="44">
         <f t="shared" si="0"/>
-        <v>323079.66666666663</v>
-      </c>
-      <c r="K114" s="48">
+        <v>375000</v>
+      </c>
+      <c r="K114" s="44">
         <f t="shared" si="0"/>
-        <v>66316.253205128218</v>
-      </c>
-      <c r="L114" s="48">
+        <v>0</v>
+      </c>
+      <c r="L114" s="44">
         <f t="shared" si="0"/>
-        <v>1125286.309615385</v>
-      </c>
-      <c r="M114" s="48">
+        <v>0</v>
+      </c>
+      <c r="M114" s="44">
         <f t="shared" si="0"/>
-        <v>28474.83647435897</v>
-      </c>
-      <c r="N114" s="48">
+        <v>0</v>
+      </c>
+      <c r="N114" s="44">
         <f t="shared" si="0"/>
-        <v>35066.47445512822</v>
-      </c>
-      <c r="O114" s="48">
+        <v>0</v>
+      </c>
+      <c r="O114" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
